--- a/Assets/06.Table/PetDispatch.xlsx
+++ b/Assets/06.Table/PetDispatch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SungHoon\Desktop\요사키\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC9BA92-AAFE-4CB8-8B0A-7764F68AA8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A34E1F-A462-477D-8DA5-2FBF9B8D0B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="PetDispatch" sheetId="1" r:id="rId1"/>
@@ -1127,265 +1127,288 @@
           </cell>
         </row>
         <row r="36">
+          <cell r="C36">
+            <v>9048</v>
+          </cell>
           <cell r="D36" t="str">
-            <v>도술(메뉴)</v>
+            <v>요석</v>
           </cell>
         </row>
         <row r="37">
           <cell r="D37" t="str">
-            <v>귀문 개방(메뉴)</v>
+            <v>명상(수련-명상)</v>
           </cell>
         </row>
         <row r="38">
           <cell r="D38" t="str">
-            <v>강철이전(메뉴)</v>
+            <v>도술(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="39">
           <cell r="D39" t="str">
-            <v>요도 해방(메뉴)</v>
+            <v>귀문 개방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="40">
           <cell r="D40" t="str">
-            <v>명상(수련)</v>
+            <v>요도 해방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="41">
-          <cell r="C41">
-            <v>0</v>
-          </cell>
           <cell r="D41" t="str">
-            <v>반딧불전(요괴사냥)</v>
+            <v>요력 개방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="42">
           <cell r="D42" t="str">
-            <v>요괴도장(요괴사냥)</v>
+            <v>환수파견(메뉴)</v>
           </cell>
         </row>
         <row r="43">
           <cell r="D43" t="str">
-            <v>고양이요괴전(요괴사냥)</v>
+            <v>강철이전(메뉴)</v>
           </cell>
         </row>
         <row r="44">
           <cell r="D44" t="str">
-            <v>도깨비전(요괴사냥)</v>
+            <v>검의 산(가방 )</v>
           </cell>
         </row>
         <row r="45">
           <cell r="D45" t="str">
-            <v>도깨비 대장간(요괴사냥)</v>
+            <v>검의 영혼(가방)</v>
           </cell>
         </row>
         <row r="46">
           <cell r="D46" t="str">
-            <v>영혼의숲(요괴사냥)</v>
+            <v>노리개 수호령(가방)</v>
           </cell>
         </row>
         <row r="47">
           <cell r="D47" t="str">
-            <v>태극도장(요괴사냥)</v>
+            <v>붉은구미호전(문파)</v>
           </cell>
         </row>
         <row r="48">
           <cell r="D48" t="str">
-            <v>12요괴전(요괴사냥)</v>
+            <v>대산군(문파)</v>
           </cell>
         </row>
         <row r="49">
           <cell r="D49" t="str">
-            <v>백귀야행(요괴사냥)</v>
+            <v>문파 동굴(문파)</v>
           </cell>
         </row>
         <row r="50">
+          <cell r="C50">
+            <v>0</v>
+          </cell>
           <cell r="D50" t="str">
-            <v>구미호전(요괴사냥)</v>
+            <v>반딧불전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="51">
           <cell r="D51" t="str">
-            <v>부처님전(요괴사냥)</v>
+            <v>요괴도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="52">
           <cell r="D52" t="str">
-            <v>악귀퇴치/악의씨앗(요괴사냥)</v>
+            <v>고양이요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="53">
           <cell r="D53" t="str">
-            <v>신요괴전(요괴사냥)</v>
+            <v>도깨비전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="54">
           <cell r="D54" t="str">
-            <v>요괴탈/귀신나무(요괴사냥)</v>
+            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="55">
           <cell r="D55" t="str">
-            <v>수호신(요괴사냥)</v>
+            <v>영혼의숲(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="56">
           <cell r="D56" t="str">
-            <v>요괴지옥(요괴사냥)</v>
+            <v>태극도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="57">
           <cell r="D57" t="str">
-            <v>십만대산(요괴사냥)</v>
+            <v>12요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="58">
           <cell r="D58" t="str">
-            <v>천상계(요괴사냥)</v>
+            <v>백귀야행(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="59">
           <cell r="D59" t="str">
-            <v>왕의 시련(요괴사냥)</v>
+            <v>구미호전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="60">
           <cell r="D60" t="str">
-            <v>비전 전수(요괴사냥)</v>
+            <v>부처님전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61" t="str">
-            <v>사냥꾼시험(요괴사냥)</v>
+            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62" t="str">
-            <v>도깨비나라(요괴사냥)</v>
+            <v>신요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63" t="str">
-            <v>사신수별자리(요괴사냥)</v>
+            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64" t="str">
-            <v>수호동물전(요괴사냥)</v>
+            <v>수호신(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="65">
           <cell r="D65" t="str">
-            <v>여우굴(요괴사냥)</v>
+            <v>요괴지옥(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66" t="str">
-            <v>초월동굴(요괴사냥)</v>
+            <v>십만대산(요괴사냥)</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67" t="str">
-            <v>사흉수(요괴사냥)</v>
+            <v>천상계(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68" t="str">
-            <v>수미산(요괴사냥)</v>
+            <v>왕의 시련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69" t="str">
-            <v>신의 시련(요괴사냥)</v>
+            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70" t="str">
-            <v>사룡전(요괴사냥)</v>
+            <v>비전 전수(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71" t="str">
-            <v>단전강화(요괴사냥)</v>
+            <v>도깨비나라(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="72">
           <cell r="D72" t="str">
-            <v>여우전(요괴사냥)</v>
+            <v>사신수별자리(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="73">
           <cell r="D73" t="str">
-            <v>도적단(요괴사냥)</v>
+            <v>수호동물전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="74">
           <cell r="D74" t="str">
-            <v>심연(요괴사냥)</v>
+            <v>여우굴(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="75">
           <cell r="D75" t="str">
-            <v>산군전(요괴사냥)</v>
+            <v>초월동굴(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76" t="str">
-            <v>천구전(요괴사냥)</v>
+            <v>사흉수(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77" t="str">
-            <v>수인전(요괴사냥)</v>
+            <v>수미산(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="78">
           <cell r="D78" t="str">
-            <v>신선계(요괴사냥)</v>
+            <v>신의 시련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="79">
           <cell r="D79" t="str">
-            <v>현상수배(요괴사냥)</v>
+            <v>사룡전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="80">
           <cell r="D80" t="str">
-            <v>검의 산(가방)</v>
+            <v>단전강화(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="81">
           <cell r="D81" t="str">
-            <v>검의 영혼(가방)</v>
+            <v>여우전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="82">
           <cell r="D82" t="str">
-            <v>노리개 수호령(가방)</v>
+            <v>도적단(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="D83" t="str">
-            <v>붉은구미호전(문파)</v>
+            <v>심연(요괴사냥-삼천세계)</v>
           </cell>
         </row>
         <row r="84">
           <cell r="D84" t="str">
-            <v>대산군(문파)</v>
+            <v>폐관수련(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="85">
           <cell r="D85" t="str">
-            <v>문파 동굴(문파)</v>
+            <v>산군전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="D86" t="str">
-            <v>데미지 단위</v>
+            <v>천구전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="87">
           <cell r="D87" t="str">
+            <v>수인전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88" t="str">
+            <v>신선계(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="D89" t="str">
+            <v>현상수배(요괴사냥)</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="D90" t="str">
+            <v>데미지 단위</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="D91" t="str">
             <v>스테이지</v>
           </cell>
         </row>
@@ -1692,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AC41"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3067,6 +3090,48 @@
         <v>400000000,20500000000,880000000,7300000,430,17000,85000,3800,2,490000,67000,2,2,1,1,1</v>
       </c>
     </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f>VLOOKUP(A42,Balance!G:K,2,FALSE)</f>
+        <v>401</v>
+      </c>
+      <c r="C42">
+        <f>VLOOKUP(A42,Balance!G:K,3,FALSE)</f>
+        <v>410</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP(A42,Balance!G:K,4,FALSE)</f>
+        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
+      </c>
+      <c r="E42" t="str">
+        <f>VLOOKUP(A42,Balance!G:K,5,FALSE)</f>
+        <v>410000000,21000000000,900000000,7500000,440,17500,87000,3900,2,510000,70000,2,2,1,1,1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f>VLOOKUP(A43,Balance!G:K,2,FALSE)</f>
+        <v>411</v>
+      </c>
+      <c r="C43">
+        <f>VLOOKUP(A43,Balance!G:K,3,FALSE)</f>
+        <v>420</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP(A43,Balance!G:K,4,FALSE)</f>
+        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
+      </c>
+      <c r="E43" t="str">
+        <f>VLOOKUP(A43,Balance!G:K,5,FALSE)</f>
+        <v>420000000,21500000000,920000000,7700000,450,18000,89000,4000,2,530000,73000,2,2,2,1,1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3078,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92007C3-2EE0-406B-9BB1-72575B4411F7}">
   <dimension ref="A1:BH61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/PetDispatch.xlsx
+++ b/Assets/06.Table/PetDispatch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A34E1F-A462-477D-8DA5-2FBF9B8D0B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317DA26B-9CD3-4D7E-A10C-6B0326CCC869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="208">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -406,67 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pet46</t>
-  </si>
-  <si>
-    <t>적천구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet47</t>
-  </si>
-  <si>
-    <t>백천구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet48</t>
-  </si>
-  <si>
-    <t>현무(극)</t>
-  </si>
-  <si>
-    <t>pet49</t>
-  </si>
-  <si>
-    <t>백호(극)</t>
-  </si>
-  <si>
-    <t>pet50</t>
-  </si>
-  <si>
-    <t>주작(극)</t>
-  </si>
-  <si>
-    <t>pet51</t>
-  </si>
-  <si>
-    <t>청룡(극)</t>
-  </si>
-  <si>
-    <t>pet52</t>
-  </si>
-  <si>
-    <t>요랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pet54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>점수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,24 +569,176 @@
     <t>수량16</t>
   </si>
   <si>
-    <t>청룡 주작 점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 펫 점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구랑 점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요랑 점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,5,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>10000000,1000000000,100000000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>20000000,1500000000,120000000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>30000000,2000000000,140000000,0,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>40000000,2500000000,160000000,100000,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>50000000,3000000000,180000000,300000,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>60000000,3500000000,200000000,500000,0,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>70000000,4000000000,220000000,700000,8000,0,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>80000000,4500000000,240000000,900000,8200,300000,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>90000000,5000000000,260000000,1100000,8400,340000,0,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,-1,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>100000000,5500000000,280000000,1300000,8600,360000,120000,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>110000000,6000000000,300000000,1500000,8800,380000,160000,0,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,-1,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>120000000,6500000000,320000000,1700000,9000,400000,200000,50000,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>130000000,7000000000,340000000,1900000,9200,420000,240000,55000,0,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,9028,-1,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>140000000,7500000000,360000000,2100000,9400,440000,280000,60000,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>150000000,8000000000,380000000,2300000,9600,460000,320000,65000,1,0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,9028,9032,-1,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>160000000,8500000000,400000000,2500000,9800,480000,360000,70000,1,7000000,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>170000000,9000000000,420000000,2700000,10000,500000,400000,75000,1,7500000,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>180000000,9500000000,440000000,2900000,10200,520000,440000,80000,1,8000000,1000000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>190000000,10000000000,460000000,3100000,10400,540000,480000,85000,1,8500000,1200000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>200000000,10500000000,480000000,3300000,10600,560000,520000,90000,1,9000000,1350000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>210000000,11000000000,500000000,3500000,10800,580000,560000,95000,1,9500000,1500000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>220000000,11500000000,520000000,3700000,11000,600000,600000,100000,1,10000000,1650000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>230000000,12000000000,540000000,3900000,11200,620000,620000,110000,1,11000000,1800000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>240000000,12500000000,560000000,4100000,11400,640000,640000,120000,1,12000000,2000000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>250000000,13000000000,580000000,4300000,11600,660000,660000,130000,1,13000000,2200000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>260000000,13500000000,600000000,4500000,11800,680000,680000,140000,1,14000000,2350000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>270000000,14000000000,620000000,4700000,12000,700000,700000,150000,1,15000000,2500000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>280000000,14500000000,640000000,4900000,12200,720000,720000,160000,1,16000000,2650000,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,-1,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>290000000,15000000000,660000000,5100000,12400,740000,740000,170000,2,17000000,2800000,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>300000000,15500000000,680000000,5300000,12600,760000,760000,180000,2,18000000,3000000,1,0,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,-1,-1,-1</t>
+  </si>
+  <si>
+    <t>310000000,16000000000,700000000,5500000,12800,780000,780000,190000,2,19000000,3200000,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>320000000,16500000000,720000000,5700000,13000,800000,800000,200000,2,20000000,3350000,1,1,0,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,-1,-1</t>
+  </si>
+  <si>
+    <t>330000000,17000000000,740000000,5900000,13200,820000,820000,210000,2,21000000,3500000,1,1,1,0,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,-1</t>
+  </si>
+  <si>
+    <t>340000000,17500000000,760000000,6100000,13400,840000,840000,220000,2,22000000,3650000,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>350000000,18000000000,780000000,6300000,13600,860000,860000,230000,2,23000000,3800000,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</t>
+  </si>
+  <si>
+    <t>360000000,18500000000,800000000,6500000,13800,880000,880000,240000,2,24000000,4000000,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>370000000,19000000000,820000000,6700000,14000,900000,900000,250000,2,25000000,4200000,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>380000000,19500000000,840000000,6900000,14200,920000,920000,260000,2,26000000,4350000,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>390000000,20000000000,860000000,7100000,14400,940000,940000,270000,2,27000000,4500000,2,1,1,1,1</t>
+  </si>
+  <si>
+    <t>400000000,20500000000,880000000,7300000,14600,960000,960000,280000,2,28000000,4650000,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>410000000,21000000000,900000000,7500000,14800,980000,980000,290000,2,29000000,4800000,2,2,1,1,1</t>
+  </si>
+  <si>
+    <t>420000000,21500000000,920000000,7700000,15000,1000000,1000000,300000,2,30000000,5000000,2,2,2,1,1</t>
   </si>
 </sst>
 </file>
@@ -695,7 +786,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,6 +814,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -747,7 +844,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +861,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,280 +1238,532 @@
           </cell>
         </row>
         <row r="37">
+          <cell r="C37">
+            <v>9049</v>
+          </cell>
           <cell r="D37" t="str">
-            <v>명상(수련-명상)</v>
+            <v>태극 조각</v>
           </cell>
         </row>
         <row r="38">
+          <cell r="C38">
+            <v>9050</v>
+          </cell>
           <cell r="D38" t="str">
-            <v>도술(메뉴-특수성장)</v>
+            <v>태극 영약</v>
           </cell>
         </row>
         <row r="39">
+          <cell r="C39">
+            <v>9052</v>
+          </cell>
           <cell r="D39" t="str">
-            <v>귀문 개방(메뉴-특수성장)</v>
+            <v>검은 구미호 구슬</v>
           </cell>
         </row>
         <row r="40">
+          <cell r="C40">
+            <v>9053</v>
+          </cell>
           <cell r="D40" t="str">
-            <v>요도 해방(메뉴-특수성장)</v>
+            <v>검은 구미호 구슬 소탕권</v>
           </cell>
         </row>
         <row r="41">
+          <cell r="C41">
+            <v>9054</v>
+          </cell>
           <cell r="D41" t="str">
-            <v>요력 개방(메뉴-특수성장)</v>
+            <v>수련의 증표</v>
           </cell>
         </row>
         <row r="42">
+          <cell r="C42">
+            <v>9055</v>
+          </cell>
           <cell r="D42" t="str">
-            <v>환수파견(메뉴)</v>
+            <v>수련의 방 입장권</v>
           </cell>
         </row>
         <row r="43">
+          <cell r="C43">
+            <v>9056</v>
+          </cell>
           <cell r="D43" t="str">
-            <v>강철이전(메뉴)</v>
+            <v>비무 증표</v>
           </cell>
         </row>
         <row r="44">
+          <cell r="C44">
+            <v>9057</v>
+          </cell>
           <cell r="D44" t="str">
-            <v>검의 산(가방 )</v>
+            <v>비무 대회 입장권</v>
           </cell>
         </row>
         <row r="45">
+          <cell r="C45">
+            <v>9061</v>
+          </cell>
           <cell r="D45" t="str">
-            <v>검의 영혼(가방)</v>
+            <v>적안 마수 소탕권</v>
           </cell>
         </row>
         <row r="46">
+          <cell r="C46">
+            <v>9062</v>
+          </cell>
           <cell r="D46" t="str">
-            <v>노리개 수호령(가방)</v>
+            <v>사신수 기운</v>
           </cell>
         </row>
         <row r="47">
+          <cell r="C47">
+            <v>9063</v>
+          </cell>
           <cell r="D47" t="str">
-            <v>붉은구미호전(문파)</v>
+            <v>사신수 영약</v>
           </cell>
         </row>
         <row r="48">
+          <cell r="C48">
+            <v>9064</v>
+          </cell>
           <cell r="D48" t="str">
-            <v>대산군(문파)</v>
+            <v>수련서</v>
           </cell>
         </row>
         <row r="49">
+          <cell r="C49">
+            <v>9065</v>
+          </cell>
           <cell r="D49" t="str">
-            <v>문파 동굴(문파)</v>
+            <v>혈의 기운</v>
           </cell>
         </row>
         <row r="50">
           <cell r="C50">
-            <v>0</v>
+            <v>9066</v>
           </cell>
           <cell r="D50" t="str">
-            <v>반딧불전(요괴사냥-한계돌파)</v>
+            <v>제자 혈자리 전수권</v>
           </cell>
         </row>
         <row r="51">
+          <cell r="C51">
+            <v>9067</v>
+          </cell>
           <cell r="D51" t="str">
-            <v>요괴도장(요괴사냥-한계돌파)</v>
+            <v>임무 증표</v>
           </cell>
         </row>
         <row r="52">
+          <cell r="C52">
+            <v>9068</v>
+          </cell>
           <cell r="D52" t="str">
-            <v>고양이요괴전(요괴사냥-보스도전)</v>
+            <v>초월 광산 소탕권</v>
           </cell>
         </row>
         <row r="53">
+          <cell r="C53">
+            <v>15001</v>
+          </cell>
           <cell r="D53" t="str">
-            <v>도깨비전(요괴사냥-한계돌파)</v>
+            <v>시간 조각</v>
           </cell>
         </row>
         <row r="54">
+          <cell r="C54">
+            <v>15000</v>
+          </cell>
           <cell r="D54" t="str">
-            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
+            <v>시간 정수</v>
           </cell>
         </row>
         <row r="55">
+          <cell r="C55">
+            <v>15002</v>
+          </cell>
           <cell r="D55" t="str">
-            <v>영혼의숲(요괴사냥-한계돌파)</v>
+            <v>시간 소탕권</v>
           </cell>
         </row>
         <row r="56">
           <cell r="D56" t="str">
-            <v>태극도장(요괴사냥-한계돌파)</v>
+            <v>명상(수련-명상)</v>
           </cell>
         </row>
         <row r="57">
           <cell r="D57" t="str">
-            <v>12요괴전(요괴사냥-보스도전)</v>
+            <v>여우 정수(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="58">
           <cell r="D58" t="str">
-            <v>백귀야행(요괴사냥-한계돌파)</v>
+            <v>야차 강화(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="59">
           <cell r="D59" t="str">
-            <v>구미호전(요괴사냥-보스도전)</v>
+            <v>귀문 개방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="60">
           <cell r="D60" t="str">
-            <v>부처님전(요괴사냥-한계돌파)</v>
+            <v>도술(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="61">
           <cell r="D61" t="str">
-            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
+            <v>유물 복원(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="62">
           <cell r="D62" t="str">
-            <v>신요괴전(요괴사냥-보스도전)</v>
+            <v>태극 심법(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="63">
           <cell r="D63" t="str">
-            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
+            <v>환골 탈태(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="64">
           <cell r="D64" t="str">
-            <v>수호신(요괴사냥-보스도전)</v>
+            <v>요도 해방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="65">
           <cell r="D65" t="str">
-            <v>요괴지옥(요괴사냥-삼천세계)</v>
+            <v>제자(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="66">
           <cell r="D66" t="str">
-            <v>십만대산(요괴사냥)</v>
+            <v>요력 개방(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="67">
           <cell r="D67" t="str">
-            <v>천상계(요괴사냥-삼천세계)</v>
+            <v>사신수의 힘(메뉴-특수성장)</v>
           </cell>
         </row>
         <row r="68">
           <cell r="D68" t="str">
-            <v>왕의 시련(요괴사냥-한계돌파)</v>
+            <v>업적(메뉴)</v>
           </cell>
         </row>
         <row r="69">
           <cell r="D69" t="str">
-            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
+            <v>환수파견(메뉴)</v>
           </cell>
         </row>
         <row r="70">
           <cell r="D70" t="str">
-            <v>비전 전수(요괴사냥-한계돌파)</v>
+            <v>강철이전(메뉴)</v>
           </cell>
         </row>
         <row r="71">
           <cell r="D71" t="str">
-            <v>도깨비나라(요괴사냥-삼천세계)</v>
+            <v>푸른 강철이(메뉴)</v>
           </cell>
         </row>
         <row r="72">
           <cell r="D72" t="str">
-            <v>사신수별자리(요괴사냥-보스도전)</v>
+            <v>적안 마수(메뉴)</v>
           </cell>
         </row>
         <row r="73">
           <cell r="D73" t="str">
-            <v>수호동물전(요괴사냥-한계돌파)</v>
+            <v>특별 임무(메뉴)</v>
           </cell>
         </row>
         <row r="74">
           <cell r="D74" t="str">
-            <v>여우굴(요괴사냥-한계돌파)</v>
+            <v>시간의 틈(메뉴)</v>
           </cell>
         </row>
         <row r="75">
           <cell r="D75" t="str">
-            <v>초월동굴(요괴사냥-한계돌파)</v>
+            <v>비무 대회(메뉴)</v>
           </cell>
         </row>
         <row r="76">
           <cell r="D76" t="str">
-            <v>사흉수(요괴사냥-보스도전)</v>
+            <v>검의 산(가방 )</v>
           </cell>
         </row>
         <row r="77">
           <cell r="D77" t="str">
-            <v>수미산(요괴사냥-삼천세계)</v>
+            <v>검의 영혼(가방)</v>
           </cell>
         </row>
         <row r="78">
           <cell r="D78" t="str">
-            <v>신의 시련(요괴사냥-한계돌파)</v>
+            <v>노리개 수호령(가방)</v>
           </cell>
         </row>
         <row r="79">
           <cell r="D79" t="str">
-            <v>사룡전(요괴사냥-보스도전)</v>
+            <v>붉은구미호전(문파)</v>
           </cell>
         </row>
         <row r="80">
           <cell r="D80" t="str">
-            <v>단전강화(요괴사냥-한계돌파)</v>
+            <v>대산군(문파)</v>
           </cell>
         </row>
         <row r="81">
           <cell r="D81" t="str">
-            <v>여우전(요괴사냥-보스도전)</v>
+            <v>문파 동굴(문파)</v>
           </cell>
         </row>
         <row r="82">
+          <cell r="C82">
+            <v>0</v>
+          </cell>
           <cell r="D82" t="str">
-            <v>도적단(요괴사냥-삼천세계)</v>
+            <v>반딧불전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="83">
           <cell r="D83" t="str">
-            <v>심연(요괴사냥-삼천세계)</v>
+            <v>요괴도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="84">
           <cell r="D84" t="str">
-            <v>폐관수련(요괴사냥-한계돌파)</v>
+            <v>고양이요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="85">
           <cell r="D85" t="str">
-            <v>산군전(요괴사냥-보스도전)</v>
+            <v>도깨비전(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="86">
           <cell r="D86" t="str">
-            <v>천구전(요괴사냥-보스도전)</v>
+            <v>도깨비 대장간(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="87">
           <cell r="D87" t="str">
-            <v>수인전(요괴사냥-보스도전)</v>
+            <v>영혼의숲(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="88">
           <cell r="D88" t="str">
-            <v>신선계(요괴사냥-삼천세계)</v>
+            <v>태극도장(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="89">
           <cell r="D89" t="str">
-            <v>현상수배(요괴사냥)</v>
+            <v>12요괴전(요괴사냥-보스도전)</v>
           </cell>
         </row>
         <row r="90">
           <cell r="D90" t="str">
-            <v>데미지 단위</v>
+            <v>백귀야행(요괴사냥-한계돌파)</v>
           </cell>
         </row>
         <row r="91">
           <cell r="D91" t="str">
+            <v>구미호전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="D92" t="str">
+            <v>부처님전(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="D93" t="str">
+            <v>악귀퇴치/악의씨앗(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="D94" t="str">
+            <v>신요괴전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="D95" t="str">
+            <v>요괴탈/귀신나무(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="D96" t="str">
+            <v>수호신(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="D97" t="str">
+            <v>요괴지옥(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="D98" t="str">
+            <v>십만대산(요괴사냥)</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="D99" t="str">
+            <v>천상계(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100" t="str">
+            <v>왕의 시련(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="D101" t="str">
+            <v>사냥꾼시험(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="D102" t="str">
+            <v>비전 전수(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103" t="str">
+            <v>도깨비나라(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104" t="str">
+            <v>사신수별자리(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105" t="str">
+            <v>수호동물전(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="D106" t="str">
+            <v>여우굴(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="D107" t="str">
+            <v>초월동굴(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="D108" t="str">
+            <v>사흉수(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109" t="str">
+            <v>수미산(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="D110" t="str">
+            <v>신의 시련(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="D111" t="str">
+            <v>사룡전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="D112" t="str">
+            <v>단전강화(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="D113" t="str">
+            <v>여우전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="D114" t="str">
+            <v>도적단(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="D115" t="str">
+            <v>심연(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="D116" t="str">
+            <v>폐관수련(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="D117" t="str">
+            <v>산군전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="D118" t="str">
+            <v>검은구미호전(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="D119" t="str">
+            <v>천구전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="D120" t="str">
+            <v>초월광산(요괴사냥-한계돌파)</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="D121" t="str">
+            <v>수인전(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="D122" t="str">
+            <v>수호의 시련(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="D123" t="str">
+            <v>신선계(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="D124" t="str">
+            <v>용인계(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="D125" t="str">
+            <v>용궁(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="D126" t="str">
+            <v>무림고수(요괴사냥-보스도전)</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="D127" t="str">
+            <v>극락(요괴사냥-삼천세계)</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="D128" t="str">
+            <v>현상수배(요괴사냥)</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="D129" t="str">
+            <v>데미지 단위</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="D130" t="str">
             <v>스테이지</v>
           </cell>
         </row>
@@ -1419,9 +1774,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1459,7 +1814,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1565,7 +1920,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1707,7 +2062,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1717,8 +2072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1758,13 +2113,11 @@
         <f>VLOOKUP(A2,Balance!G:K,3,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(A2,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E2" t="str">
-        <f>VLOOKUP(A2,Balance!G:K,5,FALSE)</f>
-        <v>10000000,1000000000,100000000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1779,13 +2132,11 @@
         <f>VLOOKUP(A3,Balance!G:K,3,FALSE)</f>
         <v>20</v>
       </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(A3,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E3" t="str">
-        <f>VLOOKUP(A3,Balance!G:K,5,FALSE)</f>
-        <v>20000000,1500000000,120000000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>154</v>
       </c>
       <c r="F3"/>
       <c r="G3"/>
@@ -1824,13 +2175,11 @@
         <f>VLOOKUP(A4,Balance!G:K,3,FALSE)</f>
         <v>30</v>
       </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(A4,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E4" t="str">
-        <f>VLOOKUP(A4,Balance!G:K,5,FALSE)</f>
-        <v>30000000,2000000000,140000000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -1845,13 +2194,11 @@
         <f>VLOOKUP(A5,Balance!G:K,3,FALSE)</f>
         <v>40</v>
       </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(A5,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E5" t="str">
-        <f>VLOOKUP(A5,Balance!G:K,5,FALSE)</f>
-        <v>40000000,2500000000,160000000,100000,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1866,13 +2213,11 @@
         <f>VLOOKUP(A6,Balance!G:K,3,FALSE)</f>
         <v>50</v>
       </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(A6,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E6" t="str">
-        <f>VLOOKUP(A6,Balance!G:K,5,FALSE)</f>
-        <v>50000000,3000000000,180000000,300000,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D6" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" t="s">
+        <v>158</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
@@ -1911,13 +2256,11 @@
         <f>VLOOKUP(A7,Balance!G:K,3,FALSE)</f>
         <v>60</v>
       </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(A7,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E7" t="str">
-        <f>VLOOKUP(A7,Balance!G:K,5,FALSE)</f>
-        <v>60000000,3500000000,200000000,500000,0,0,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
@@ -1932,13 +2275,11 @@
         <f>VLOOKUP(A8,Balance!G:K,3,FALSE)</f>
         <v>70</v>
       </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(A8,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E8" t="str">
-        <f>VLOOKUP(A8,Balance!G:K,5,FALSE)</f>
-        <v>70000000,4000000000,220000000,700000,100,0,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -1953,13 +2294,11 @@
         <f>VLOOKUP(A9,Balance!G:K,3,FALSE)</f>
         <v>80</v>
       </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(A9,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E9" t="str">
-        <f>VLOOKUP(A9,Balance!G:K,5,FALSE)</f>
-        <v>80000000,4500000000,240000000,900000,110,1000,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
@@ -1998,13 +2337,11 @@
         <f>VLOOKUP(A10,Balance!G:K,3,FALSE)</f>
         <v>90</v>
       </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(A10,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,-1,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E10" t="str">
-        <f>VLOOKUP(A10,Balance!G:K,5,FALSE)</f>
-        <v>90000000,5000000000,260000000,1100000,120,1500,0,0,0,0,0,0,0,0,0,0</v>
+      <c r="D10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
@@ -2043,13 +2380,11 @@
         <f>VLOOKUP(A11,Balance!G:K,3,FALSE)</f>
         <v>100</v>
       </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(A11,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E11" t="str">
-        <f>VLOOKUP(A11,Balance!G:K,5,FALSE)</f>
-        <v>100000000,5500000000,280000000,1300000,130,2000,25000,0,0,0,0,0,0,0,0,0</v>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>166</v>
       </c>
       <c r="F11"/>
       <c r="G11"/>
@@ -2088,13 +2423,11 @@
         <f>VLOOKUP(A12,Balance!G:K,3,FALSE)</f>
         <v>110</v>
       </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(A12,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,-1,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E12" t="str">
-        <f>VLOOKUP(A12,Balance!G:K,5,FALSE)</f>
-        <v>110000000,6000000000,300000000,1500000,140,2500,27000,0,0,0,0,0,0,0,0,0</v>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
@@ -2109,13 +2442,11 @@
         <f>VLOOKUP(A13,Balance!G:K,3,FALSE)</f>
         <v>120</v>
       </c>
-      <c r="D13" t="str">
-        <f>VLOOKUP(A13,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E13" t="str">
-        <f>VLOOKUP(A13,Balance!G:K,5,FALSE)</f>
-        <v>120000000,6500000000,320000000,1700000,150,3000,29000,1000,0,0,0,0,0,0,0,0</v>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2130,13 +2461,11 @@
         <f>VLOOKUP(A14,Balance!G:K,3,FALSE)</f>
         <v>130</v>
       </c>
-      <c r="D14" t="str">
-        <f>VLOOKUP(A14,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,-1,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E14" t="str">
-        <f>VLOOKUP(A14,Balance!G:K,5,FALSE)</f>
-        <v>130000000,7000000000,340000000,1900000,160,3500,31000,1100,0,0,0,0,0,0,0,0</v>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>170</v>
       </c>
       <c r="F14"/>
       <c r="G14"/>
@@ -2175,13 +2504,11 @@
         <f>VLOOKUP(A15,Balance!G:K,3,FALSE)</f>
         <v>140</v>
       </c>
-      <c r="D15" t="str">
-        <f>VLOOKUP(A15,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E15" t="str">
-        <f>VLOOKUP(A15,Balance!G:K,5,FALSE)</f>
-        <v>140000000,7500000000,360000000,2100000,170,4000,33000,1200,1,0,0,0,0,0,0,0</v>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" t="s">
+        <v>172</v>
       </c>
       <c r="F15"/>
       <c r="G15"/>
@@ -2220,13 +2547,11 @@
         <f>VLOOKUP(A16,Balance!G:K,3,FALSE)</f>
         <v>150</v>
       </c>
-      <c r="D16" t="str">
-        <f>VLOOKUP(A16,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,-1,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E16" t="str">
-        <f>VLOOKUP(A16,Balance!G:K,5,FALSE)</f>
-        <v>150000000,8000000000,380000000,2300000,180,4500,35000,1300,1,0,0,0,0,0,0,0</v>
+      <c r="D16" t="s">
+        <v>171</v>
+      </c>
+      <c r="E16" t="s">
+        <v>173</v>
       </c>
       <c r="F16"/>
       <c r="G16"/>
@@ -2265,13 +2590,11 @@
         <f>VLOOKUP(A17,Balance!G:K,3,FALSE)</f>
         <v>160</v>
       </c>
-      <c r="D17" t="str">
-        <f>VLOOKUP(A17,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E17" t="str">
-        <f>VLOOKUP(A17,Balance!G:K,5,FALSE)</f>
-        <v>160000000,8500000000,400000000,2500000,190,5000,37000,1400,1,10000,0,0,0,0,0,0</v>
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
@@ -2286,13 +2609,11 @@
         <f>VLOOKUP(A18,Balance!G:K,3,FALSE)</f>
         <v>170</v>
       </c>
-      <c r="D18" t="str">
-        <f>VLOOKUP(A18,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,-1,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E18" t="str">
-        <f>VLOOKUP(A18,Balance!G:K,5,FALSE)</f>
-        <v>170000000,9000000000,420000000,2700000,200,5500,39000,1500,1,30000,0,0,0,0,0,0</v>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2307,13 +2628,11 @@
         <f>VLOOKUP(A19,Balance!G:K,3,FALSE)</f>
         <v>180</v>
       </c>
-      <c r="D19" t="str">
-        <f>VLOOKUP(A19,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E19" t="str">
-        <f>VLOOKUP(A19,Balance!G:K,5,FALSE)</f>
-        <v>180000000,9500000000,440000000,2900000,210,6000,41000,1600,1,50000,1000,0,0,0,0,0</v>
+      <c r="D19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19" t="s">
+        <v>178</v>
       </c>
       <c r="F19"/>
       <c r="G19"/>
@@ -2352,13 +2671,11 @@
         <f>VLOOKUP(A20,Balance!G:K,3,FALSE)</f>
         <v>190</v>
       </c>
-      <c r="D20" t="str">
-        <f>VLOOKUP(A20,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E20" t="str">
-        <f>VLOOKUP(A20,Balance!G:K,5,FALSE)</f>
-        <v>190000000,10000000000,460000000,3100000,220,6500,43000,1700,1,70000,4000,0,0,0,0,0</v>
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" t="s">
+        <v>179</v>
       </c>
       <c r="F20"/>
       <c r="G20"/>
@@ -2397,13 +2714,11 @@
         <f>VLOOKUP(A21,Balance!G:K,3,FALSE)</f>
         <v>200</v>
       </c>
-      <c r="D21" t="str">
-        <f>VLOOKUP(A21,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E21" t="str">
-        <f>VLOOKUP(A21,Balance!G:K,5,FALSE)</f>
-        <v>200000000,10500000000,480000000,3300000,230,7000,45000,1800,1,90000,7000,0,0,0,0,0</v>
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" t="s">
+        <v>180</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
@@ -2442,13 +2757,11 @@
         <f>VLOOKUP(A22,Balance!G:K,3,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="D22" t="str">
-        <f>VLOOKUP(A22,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E22" t="str">
-        <f>VLOOKUP(A22,Balance!G:K,5,FALSE)</f>
-        <v>210000000,11000000000,500000000,3500000,240,7500,47000,1900,1,110000,10000,0,0,0,0,0</v>
+      <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
@@ -2463,13 +2776,11 @@
         <f>VLOOKUP(A23,Balance!G:K,3,FALSE)</f>
         <v>220</v>
       </c>
-      <c r="D23" t="str">
-        <f>VLOOKUP(A23,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E23" t="str">
-        <f>VLOOKUP(A23,Balance!G:K,5,FALSE)</f>
-        <v>220000000,11500000000,520000000,3700000,250,8000,49000,2000,1,130000,13000,0,0,0,0,0</v>
+      <c r="D23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E23" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2484,13 +2795,11 @@
         <f>VLOOKUP(A24,Balance!G:K,3,FALSE)</f>
         <v>230</v>
       </c>
-      <c r="D24" t="str">
-        <f>VLOOKUP(A24,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E24" t="str">
-        <f>VLOOKUP(A24,Balance!G:K,5,FALSE)</f>
-        <v>230000000,12000000000,540000000,3900000,260,8500,51000,2100,1,150000,16000,0,0,0,0,0</v>
+      <c r="D24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E24" t="s">
+        <v>183</v>
       </c>
       <c r="F24"/>
       <c r="G24"/>
@@ -2529,13 +2838,11 @@
         <f>VLOOKUP(A25,Balance!G:K,3,FALSE)</f>
         <v>240</v>
       </c>
-      <c r="D25" t="str">
-        <f>VLOOKUP(A25,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E25" t="str">
-        <f>VLOOKUP(A25,Balance!G:K,5,FALSE)</f>
-        <v>240000000,12500000000,560000000,4100000,270,9000,53000,2200,1,170000,19000,0,0,0,0,0</v>
+      <c r="D25" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" t="s">
+        <v>184</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
@@ -2574,13 +2881,11 @@
         <f>VLOOKUP(A26,Balance!G:K,3,FALSE)</f>
         <v>250</v>
       </c>
-      <c r="D26" t="str">
-        <f>VLOOKUP(A26,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E26" t="str">
-        <f>VLOOKUP(A26,Balance!G:K,5,FALSE)</f>
-        <v>250000000,13000000000,580000000,4300000,280,9500,55000,2300,1,190000,22000,0,0,0,0,0</v>
+      <c r="D26" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
+        <v>185</v>
       </c>
       <c r="F26"/>
       <c r="G26"/>
@@ -2619,13 +2924,11 @@
         <f>VLOOKUP(A27,Balance!G:K,3,FALSE)</f>
         <v>260</v>
       </c>
-      <c r="D27" t="str">
-        <f>VLOOKUP(A27,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E27" t="str">
-        <f>VLOOKUP(A27,Balance!G:K,5,FALSE)</f>
-        <v>260000000,13500000000,600000000,4500000,290,10000,57000,2400,1,210000,25000,0,0,0,0,0</v>
+      <c r="D27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
@@ -2640,13 +2943,11 @@
         <f>VLOOKUP(A28,Balance!G:K,3,FALSE)</f>
         <v>270</v>
       </c>
-      <c r="D28" t="str">
-        <f>VLOOKUP(A28,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E28" t="str">
-        <f>VLOOKUP(A28,Balance!G:K,5,FALSE)</f>
-        <v>270000000,14000000000,620000000,4700000,300,10500,59000,2500,1,230000,28000,0,0,0,0,0</v>
+      <c r="D28" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2661,13 +2962,11 @@
         <f>VLOOKUP(A29,Balance!G:K,3,FALSE)</f>
         <v>280</v>
       </c>
-      <c r="D29" t="str">
-        <f>VLOOKUP(A29,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,-1,-1,-1,-1,-1</v>
-      </c>
-      <c r="E29" t="str">
-        <f>VLOOKUP(A29,Balance!G:K,5,FALSE)</f>
-        <v>280000000,14500000000,640000000,4900000,310,11000,61000,2600,1,250000,31000,0,0,0,0,0</v>
+      <c r="D29" t="s">
+        <v>177</v>
+      </c>
+      <c r="E29" t="s">
+        <v>188</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
@@ -2706,13 +3005,11 @@
         <f>VLOOKUP(A30,Balance!G:K,3,FALSE)</f>
         <v>290</v>
       </c>
-      <c r="D30" t="str">
-        <f>VLOOKUP(A30,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,-1,-1,-1,-1</v>
-      </c>
-      <c r="E30" t="str">
-        <f>VLOOKUP(A30,Balance!G:K,5,FALSE)</f>
-        <v>290000000,15000000000,660000000,5100000,320,11500,63000,2700,2,270000,34000,1,0,0,0,0</v>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>190</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
@@ -2751,13 +3048,11 @@
         <f>VLOOKUP(A31,Balance!G:K,3,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="D31" t="str">
-        <f>VLOOKUP(A31,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,-1,-1,-1,-1</v>
-      </c>
-      <c r="E31" t="str">
-        <f>VLOOKUP(A31,Balance!G:K,5,FALSE)</f>
-        <v>300000000,15500000000,680000000,5300000,330,12000,65000,2800,2,290000,37000,1,0,0,0,0</v>
+      <c r="D31" t="s">
+        <v>189</v>
+      </c>
+      <c r="E31" t="s">
+        <v>191</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
@@ -2796,13 +3091,11 @@
         <f>VLOOKUP(A32,Balance!G:K,3,FALSE)</f>
         <v>310</v>
       </c>
-      <c r="D32" t="str">
-        <f>VLOOKUP(A32,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,-1,-1,-1</v>
-      </c>
-      <c r="E32" t="str">
-        <f>VLOOKUP(A32,Balance!G:K,5,FALSE)</f>
-        <v>310000000,16000000000,700000000,5500000,340,12500,67000,2900,2,310000,40000,1,1,0,0,0</v>
+      <c r="D32" t="s">
+        <v>192</v>
+      </c>
+      <c r="E32" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
@@ -2817,13 +3110,11 @@
         <f>VLOOKUP(A33,Balance!G:K,3,FALSE)</f>
         <v>320</v>
       </c>
-      <c r="D33" t="str">
-        <f>VLOOKUP(A33,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,-1,-1,-1</v>
-      </c>
-      <c r="E33" t="str">
-        <f>VLOOKUP(A33,Balance!G:K,5,FALSE)</f>
-        <v>320000000,16500000000,720000000,5700000,350,13000,69000,3000,2,330000,43000,1,1,0,0,0</v>
+      <c r="D33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E33" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2838,13 +3129,11 @@
         <f>VLOOKUP(A34,Balance!G:K,3,FALSE)</f>
         <v>330</v>
       </c>
-      <c r="D34" t="str">
-        <f>VLOOKUP(A34,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,-1,-1</v>
-      </c>
-      <c r="E34" t="str">
-        <f>VLOOKUP(A34,Balance!G:K,5,FALSE)</f>
-        <v>330000000,17000000000,740000000,5900000,360,13500,71000,3100,2,350000,46000,1,1,1,0,0</v>
+      <c r="D34" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" t="s">
+        <v>196</v>
       </c>
       <c r="F34"/>
       <c r="G34"/>
@@ -2883,13 +3172,11 @@
         <f>VLOOKUP(A35,Balance!G:K,3,FALSE)</f>
         <v>340</v>
       </c>
-      <c r="D35" t="str">
-        <f>VLOOKUP(A35,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,-1</v>
-      </c>
-      <c r="E35" t="str">
-        <f>VLOOKUP(A35,Balance!G:K,5,FALSE)</f>
-        <v>340000000,17500000000,760000000,6100000,370,14000,73000,3200,2,370000,49000,1,1,1,1,0</v>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
       </c>
       <c r="F35"/>
       <c r="G35"/>
@@ -2928,13 +3215,11 @@
         <f>VLOOKUP(A36,Balance!G:K,3,FALSE)</f>
         <v>350</v>
       </c>
-      <c r="D36" t="str">
-        <f>VLOOKUP(A36,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,-1</v>
-      </c>
-      <c r="E36" t="str">
-        <f>VLOOKUP(A36,Balance!G:K,5,FALSE)</f>
-        <v>350000000,18000000000,780000000,6300000,380,14500,75000,3300,2,390000,52000,1,1,1,1,0</v>
+      <c r="D36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
@@ -2949,13 +3234,11 @@
         <f>VLOOKUP(A37,Balance!G:K,3,FALSE)</f>
         <v>360</v>
       </c>
-      <c r="D37" t="str">
-        <f>VLOOKUP(A37,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
-      </c>
-      <c r="E37" t="str">
-        <f>VLOOKUP(A37,Balance!G:K,5,FALSE)</f>
-        <v>360000000,18500000000,800000000,6500000,390,15000,77000,3400,2,410000,55000,1,1,1,1,1</v>
+      <c r="D37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
@@ -2970,13 +3253,11 @@
         <f>VLOOKUP(A38,Balance!G:K,3,FALSE)</f>
         <v>370</v>
       </c>
-      <c r="D38" t="str">
-        <f>VLOOKUP(A38,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
-      </c>
-      <c r="E38" t="str">
-        <f>VLOOKUP(A38,Balance!G:K,5,FALSE)</f>
-        <v>370000000,19000000000,820000000,6700000,400,15500,79000,3500,2,430000,58000,1,1,1,1,1</v>
+      <c r="D38" t="s">
+        <v>200</v>
+      </c>
+      <c r="E38" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2991,13 +3272,11 @@
         <f>VLOOKUP(A39,Balance!G:K,3,FALSE)</f>
         <v>380</v>
       </c>
-      <c r="D39" t="str">
-        <f>VLOOKUP(A39,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
-      </c>
-      <c r="E39" t="str">
-        <f>VLOOKUP(A39,Balance!G:K,5,FALSE)</f>
-        <v>380000000,19500000000,840000000,6900000,410,16000,81000,3600,2,450000,61000,2,1,1,1,1</v>
+      <c r="D39" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>203</v>
       </c>
       <c r="F39"/>
       <c r="G39"/>
@@ -3036,13 +3315,11 @@
         <f>VLOOKUP(A40,Balance!G:K,3,FALSE)</f>
         <v>390</v>
       </c>
-      <c r="D40" t="str">
-        <f>VLOOKUP(A40,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
-      </c>
-      <c r="E40" t="str">
-        <f>VLOOKUP(A40,Balance!G:K,5,FALSE)</f>
-        <v>390000000,20000000000,860000000,7100000,420,16500,83000,3700,2,470000,64000,2,1,1,1,1</v>
+      <c r="D40" t="s">
+        <v>200</v>
+      </c>
+      <c r="E40" t="s">
+        <v>204</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
@@ -3081,13 +3358,11 @@
         <f>VLOOKUP(A41,Balance!G:K,3,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="D41" t="str">
-        <f>VLOOKUP(A41,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
-      </c>
-      <c r="E41" t="str">
-        <f>VLOOKUP(A41,Balance!G:K,5,FALSE)</f>
-        <v>400000000,20500000000,880000000,7300000,430,17000,85000,3800,2,490000,67000,2,2,1,1,1</v>
+      <c r="D41" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
@@ -3102,13 +3377,11 @@
         <f>VLOOKUP(A42,Balance!G:K,3,FALSE)</f>
         <v>410</v>
       </c>
-      <c r="D42" t="str">
-        <f>VLOOKUP(A42,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
-      </c>
-      <c r="E42" t="str">
-        <f>VLOOKUP(A42,Balance!G:K,5,FALSE)</f>
-        <v>410000000,21000000000,900000000,7500000,440,17500,87000,3900,2,510000,70000,2,2,1,1,1</v>
+      <c r="D42" t="s">
+        <v>200</v>
+      </c>
+      <c r="E42" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
@@ -3123,13 +3396,11 @@
         <f>VLOOKUP(A43,Balance!G:K,3,FALSE)</f>
         <v>420</v>
       </c>
-      <c r="D43" t="str">
-        <f>VLOOKUP(A43,Balance!G:K,4,FALSE)</f>
-        <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
-      </c>
-      <c r="E43" t="str">
-        <f>VLOOKUP(A43,Balance!G:K,5,FALSE)</f>
-        <v>420000000,21500000000,920000000,7700000,450,18000,89000,4000,2,530000,73000,2,2,2,1,1</v>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3141,10 +3412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92007C3-2EE0-406B-9BB1-72575B4411F7}">
-  <dimension ref="A1:BH61"/>
+  <dimension ref="A1:BH47"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3155,12 +3426,12 @@
     <col min="21" max="21" width="13.125" style="4" customWidth="1"/>
     <col min="24" max="24" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9" style="4"/>
-    <col min="30" max="30" width="9" style="4"/>
-    <col min="33" max="33" width="9" style="4"/>
+    <col min="30" max="30" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="4"/>
     <col min="39" max="39" width="9" style="4"/>
-    <col min="42" max="42" width="9" style="4"/>
-    <col min="45" max="45" width="9" style="4"/>
+    <col min="42" max="42" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.25" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.3">
@@ -3174,16 +3445,16 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
         <v>3</v>
@@ -3192,151 +3463,151 @@
         <v>4</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" t="s">
+        <v>109</v>
+      </c>
+      <c r="T1" t="s">
+        <v>110</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V1" t="s">
+        <v>112</v>
+      </c>
+      <c r="W1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE1" t="s">
         <v>121</v>
       </c>
-      <c r="N1" t="s">
+      <c r="AF1" t="s">
         <v>122</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AH1" t="s">
         <v>124</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AI1" t="s">
         <v>125</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AK1" t="s">
         <v>127</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AL1" t="s">
         <v>128</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AM1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AN1" t="s">
         <v>130</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AO1" t="s">
         <v>131</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AP1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AQ1" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AR1" t="s">
         <v>134</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AS1" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AT1" t="s">
         <v>136</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AU1" t="s">
         <v>137</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AV1" t="s">
         <v>138</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AW1" t="s">
         <v>139</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AX1" t="s">
         <v>140</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AY1" t="s">
         <v>141</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AZ1" t="s">
         <v>142</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BA1" t="s">
         <v>143</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="BB1" t="s">
         <v>144</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="BC1" t="s">
         <v>145</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="BD1" t="s">
         <v>146</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="BE1" t="s">
         <v>147</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="BF1" t="s">
         <v>148</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="BG1" t="s">
         <v>149</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="BH1" t="s">
         <v>150</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>163</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>164</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>165</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>166</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>167</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.3">
@@ -3374,7 +3645,7 @@
         <v>10000000,1000000000,100000000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -3560,7 +3831,7 @@
         <v>20000000,1500000000,120000000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -3747,7 +4018,7 @@
         <v>30000000,2000000000,140000000,0,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -3934,7 +4205,7 @@
         <v>40000000,2500000000,160000000,100000,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M5">
         <v>1</v>
@@ -4122,7 +4393,7 @@
         <v>50000000,3000000000,180000000,300000,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -4310,7 +4581,7 @@
         <v>60000000,3500000000,200000000,500000,0,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M7">
         <v>1</v>
@@ -4495,10 +4766,10 @@
       </c>
       <c r="K8" t="str">
         <f t="shared" si="1"/>
-        <v>70000000,4000000000,220000000,700000,100,0,0,0,0,0,0,0,0,0,0,0</v>
+        <v>70000000,4000000000,220000000,700000,8000,0,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -4548,7 +4819,7 @@
         <v>수호환</v>
       </c>
       <c r="AA8" s="4">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -4684,10 +4955,10 @@
       </c>
       <c r="K9" t="str">
         <f t="shared" si="1"/>
-        <v>80000000,4500000000,240000000,900000,110,1000,0,0,0,0,0,0,0,0,0,0</v>
+        <v>80000000,4500000000,240000000,900000,8200,300000,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M9">
         <v>1</v>
@@ -4737,7 +5008,7 @@
         <v>수호환</v>
       </c>
       <c r="AA9" s="4">
-        <v>110</v>
+        <v>8200</v>
       </c>
       <c r="AB9">
         <v>46</v>
@@ -4747,7 +5018,7 @@
         <v>검조각</v>
       </c>
       <c r="AD9" s="4">
-        <v>1000</v>
+        <v>300000</v>
       </c>
       <c r="AE9">
         <v>-1</v>
@@ -4874,10 +5145,10 @@
       </c>
       <c r="K10" t="str">
         <f t="shared" si="1"/>
-        <v>90000000,5000000000,260000000,1100000,120,1500,0,0,0,0,0,0,0,0,0,0</v>
+        <v>90000000,5000000000,260000000,1100000,8400,340000,0,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M10">
         <v>1</v>
@@ -4927,7 +5198,7 @@
         <v>수호환</v>
       </c>
       <c r="AA10" s="4">
-        <v>120</v>
+        <v>8400</v>
       </c>
       <c r="AB10">
         <v>46</v>
@@ -4937,7 +5208,7 @@
         <v>검조각</v>
       </c>
       <c r="AD10" s="4">
-        <v>1500</v>
+        <v>340000</v>
       </c>
       <c r="AE10">
         <v>-1</v>
@@ -5064,10 +5335,10 @@
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>100000000,5500000000,280000000,1300000,130,2000,25000,0,0,0,0,0,0,0,0,0</v>
+        <v>100000000,5500000000,280000000,1300000,8600,360000,120000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M11">
         <v>1</v>
@@ -5117,7 +5388,7 @@
         <v>수호환</v>
       </c>
       <c r="AA11" s="4">
-        <v>130</v>
+        <v>8600</v>
       </c>
       <c r="AB11">
         <v>46</v>
@@ -5127,7 +5398,7 @@
         <v>검조각</v>
       </c>
       <c r="AD11" s="4">
-        <v>2000</v>
+        <v>360000</v>
       </c>
       <c r="AE11">
         <v>9010</v>
@@ -5137,7 +5408,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG11" s="4">
-        <v>25000</v>
+        <v>120000</v>
       </c>
       <c r="AH11">
         <v>-1</v>
@@ -5255,10 +5526,10 @@
       </c>
       <c r="K12" t="str">
         <f t="shared" si="1"/>
-        <v>110000000,6000000000,300000000,1500000,140,2500,27000,0,0,0,0,0,0,0,0,0</v>
+        <v>110000000,6000000000,300000000,1500000,8800,380000,160000,0,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -5308,7 +5579,7 @@
         <v>수호환</v>
       </c>
       <c r="AA12" s="4">
-        <v>140</v>
+        <v>8800</v>
       </c>
       <c r="AB12">
         <v>46</v>
@@ -5318,7 +5589,7 @@
         <v>검조각</v>
       </c>
       <c r="AD12" s="4">
-        <v>2500</v>
+        <v>380000</v>
       </c>
       <c r="AE12">
         <v>9010</v>
@@ -5328,7 +5599,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG12" s="4">
-        <v>27000</v>
+        <v>160000</v>
       </c>
       <c r="AH12">
         <v>-1</v>
@@ -5446,10 +5717,10 @@
       </c>
       <c r="K13" t="str">
         <f t="shared" si="1"/>
-        <v>120000000,6500000000,320000000,1700000,150,3000,29000,1000,0,0,0,0,0,0,0,0</v>
+        <v>120000000,6500000000,320000000,1700000,9000,400000,200000,50000,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -5499,7 +5770,7 @@
         <v>수호환</v>
       </c>
       <c r="AA13" s="4">
-        <v>150</v>
+        <v>9000</v>
       </c>
       <c r="AB13">
         <v>46</v>
@@ -5509,7 +5780,7 @@
         <v>검조각</v>
       </c>
       <c r="AD13" s="4">
-        <v>3000</v>
+        <v>400000</v>
       </c>
       <c r="AE13">
         <v>9010</v>
@@ -5519,7 +5790,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG13" s="4">
-        <v>29000</v>
+        <v>200000</v>
       </c>
       <c r="AH13">
         <v>9026</v>
@@ -5529,7 +5800,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ13" s="4">
-        <v>1000</v>
+        <v>50000</v>
       </c>
       <c r="AK13">
         <v>-1</v>
@@ -5638,10 +5909,10 @@
       </c>
       <c r="K14" t="str">
         <f t="shared" si="1"/>
-        <v>130000000,7000000000,340000000,1900000,160,3500,31000,1100,0,0,0,0,0,0,0,0</v>
+        <v>130000000,7000000000,340000000,1900000,9200,420000,240000,55000,0,0,0,0,0,0,0,0</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M14">
         <v>1</v>
@@ -5691,7 +5962,7 @@
         <v>수호환</v>
       </c>
       <c r="AA14" s="4">
-        <v>160</v>
+        <v>9200</v>
       </c>
       <c r="AB14">
         <v>46</v>
@@ -5701,7 +5972,7 @@
         <v>검조각</v>
       </c>
       <c r="AD14" s="4">
-        <v>3500</v>
+        <v>420000</v>
       </c>
       <c r="AE14">
         <v>9010</v>
@@ -5711,7 +5982,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG14" s="4">
-        <v>31000</v>
+        <v>240000</v>
       </c>
       <c r="AH14">
         <v>9026</v>
@@ -5721,7 +5992,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ14" s="4">
-        <v>1100</v>
+        <v>55000</v>
       </c>
       <c r="AK14">
         <v>-1</v>
@@ -5830,10 +6101,10 @@
       </c>
       <c r="K15" t="str">
         <f t="shared" si="1"/>
-        <v>140000000,7500000000,360000000,2100000,170,4000,33000,1200,1,0,0,0,0,0,0,0</v>
+        <v>140000000,7500000000,360000000,2100000,9400,440000,280000,60000,1,0,0,0,0,0,0,0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M15">
         <v>1</v>
@@ -5883,7 +6154,7 @@
         <v>수호환</v>
       </c>
       <c r="AA15" s="4">
-        <v>170</v>
+        <v>9400</v>
       </c>
       <c r="AB15">
         <v>46</v>
@@ -5893,7 +6164,7 @@
         <v>검조각</v>
       </c>
       <c r="AD15" s="4">
-        <v>4000</v>
+        <v>440000</v>
       </c>
       <c r="AE15">
         <v>9010</v>
@@ -5903,7 +6174,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG15" s="4">
-        <v>33000</v>
+        <v>280000</v>
       </c>
       <c r="AH15">
         <v>9026</v>
@@ -5913,7 +6184,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ15" s="4">
-        <v>1200</v>
+        <v>60000</v>
       </c>
       <c r="AK15">
         <v>9028</v>
@@ -6023,10 +6294,10 @@
       </c>
       <c r="K16" t="str">
         <f t="shared" si="1"/>
-        <v>150000000,8000000000,380000000,2300000,180,4500,35000,1300,1,0,0,0,0,0,0,0</v>
+        <v>150000000,8000000000,380000000,2300000,9600,460000,320000,65000,1,0,0,0,0,0,0,0</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M16">
         <v>1</v>
@@ -6076,7 +6347,7 @@
         <v>수호환</v>
       </c>
       <c r="AA16" s="4">
-        <v>180</v>
+        <v>9600</v>
       </c>
       <c r="AB16">
         <v>46</v>
@@ -6086,7 +6357,7 @@
         <v>검조각</v>
       </c>
       <c r="AD16" s="4">
-        <v>4500</v>
+        <v>460000</v>
       </c>
       <c r="AE16">
         <v>9010</v>
@@ -6096,7 +6367,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG16" s="4">
-        <v>35000</v>
+        <v>320000</v>
       </c>
       <c r="AH16">
         <v>9026</v>
@@ -6106,7 +6377,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ16" s="4">
-        <v>1300</v>
+        <v>65000</v>
       </c>
       <c r="AK16">
         <v>9028</v>
@@ -6216,10 +6487,10 @@
       </c>
       <c r="K17" t="str">
         <f t="shared" si="1"/>
-        <v>160000000,8500000000,400000000,2500000,190,5000,37000,1400,1,10000,0,0,0,0,0,0</v>
+        <v>160000000,8500000000,400000000,2500000,9800,480000,360000,70000,1,7000000,0,0,0,0,0,0</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M17">
         <v>1</v>
@@ -6269,7 +6540,7 @@
         <v>수호환</v>
       </c>
       <c r="AA17" s="4">
-        <v>190</v>
+        <v>9800</v>
       </c>
       <c r="AB17">
         <v>46</v>
@@ -6279,7 +6550,7 @@
         <v>검조각</v>
       </c>
       <c r="AD17" s="4">
-        <v>5000</v>
+        <v>480000</v>
       </c>
       <c r="AE17">
         <v>9010</v>
@@ -6289,7 +6560,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG17" s="4">
-        <v>37000</v>
+        <v>360000</v>
       </c>
       <c r="AH17">
         <v>9026</v>
@@ -6299,7 +6570,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ17" s="4">
-        <v>1400</v>
+        <v>70000</v>
       </c>
       <c r="AK17">
         <v>9028</v>
@@ -6319,7 +6590,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP17" s="4">
-        <v>10000</v>
+        <v>7000000</v>
       </c>
       <c r="AQ17">
         <v>-1</v>
@@ -6410,10 +6681,10 @@
       </c>
       <c r="K18" t="str">
         <f t="shared" si="1"/>
-        <v>170000000,9000000000,420000000,2700000,200,5500,39000,1500,1,30000,0,0,0,0,0,0</v>
+        <v>170000000,9000000000,420000000,2700000,10000,500000,400000,75000,1,7500000,0,0,0,0,0,0</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M18">
         <v>1</v>
@@ -6463,7 +6734,7 @@
         <v>수호환</v>
       </c>
       <c r="AA18" s="4">
-        <v>200</v>
+        <v>10000</v>
       </c>
       <c r="AB18">
         <v>46</v>
@@ -6473,7 +6744,7 @@
         <v>검조각</v>
       </c>
       <c r="AD18" s="4">
-        <v>5500</v>
+        <v>500000</v>
       </c>
       <c r="AE18">
         <v>9010</v>
@@ -6483,7 +6754,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG18" s="4">
-        <v>39000</v>
+        <v>400000</v>
       </c>
       <c r="AH18">
         <v>9026</v>
@@ -6493,7 +6764,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ18" s="4">
-        <v>1500</v>
+        <v>75000</v>
       </c>
       <c r="AK18">
         <v>9028</v>
@@ -6513,7 +6784,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP18" s="4">
-        <v>30000</v>
+        <v>7500000</v>
       </c>
       <c r="AQ18">
         <v>-1</v>
@@ -6604,10 +6875,10 @@
       </c>
       <c r="K19" t="str">
         <f t="shared" si="1"/>
-        <v>180000000,9500000000,440000000,2900000,210,6000,41000,1600,1,50000,1000,0,0,0,0,0</v>
+        <v>180000000,9500000000,440000000,2900000,10200,520000,440000,80000,1,8000000,1000000,0,0,0,0,0</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M19">
         <v>1</v>
@@ -6657,7 +6928,7 @@
         <v>수호환</v>
       </c>
       <c r="AA19" s="4">
-        <v>210</v>
+        <v>10200</v>
       </c>
       <c r="AB19">
         <v>46</v>
@@ -6667,7 +6938,7 @@
         <v>검조각</v>
       </c>
       <c r="AD19" s="4">
-        <v>6000</v>
+        <v>520000</v>
       </c>
       <c r="AE19">
         <v>9010</v>
@@ -6677,7 +6948,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG19" s="4">
-        <v>41000</v>
+        <v>440000</v>
       </c>
       <c r="AH19">
         <v>9026</v>
@@ -6687,7 +6958,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ19" s="4">
-        <v>1600</v>
+        <v>80000</v>
       </c>
       <c r="AK19">
         <v>9028</v>
@@ -6707,7 +6978,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP19" s="4">
-        <v>50000</v>
+        <v>8000000</v>
       </c>
       <c r="AQ19">
         <v>9043</v>
@@ -6717,7 +6988,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS19" s="4">
-        <v>1000</v>
+        <v>1000000</v>
       </c>
       <c r="AT19">
         <v>-1</v>
@@ -6799,10 +7070,10 @@
       </c>
       <c r="K20" t="str">
         <f t="shared" si="1"/>
-        <v>190000000,10000000000,460000000,3100000,220,6500,43000,1700,1,70000,4000,0,0,0,0,0</v>
+        <v>190000000,10000000000,460000000,3100000,10400,540000,480000,85000,1,8500000,1200000,0,0,0,0,0</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -6852,7 +7123,7 @@
         <v>수호환</v>
       </c>
       <c r="AA20" s="4">
-        <v>220</v>
+        <v>10400</v>
       </c>
       <c r="AB20">
         <v>46</v>
@@ -6862,7 +7133,7 @@
         <v>검조각</v>
       </c>
       <c r="AD20" s="4">
-        <v>6500</v>
+        <v>540000</v>
       </c>
       <c r="AE20">
         <v>9010</v>
@@ -6872,7 +7143,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG20" s="4">
-        <v>43000</v>
+        <v>480000</v>
       </c>
       <c r="AH20">
         <v>9026</v>
@@ -6882,7 +7153,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ20" s="4">
-        <v>1700</v>
+        <v>85000</v>
       </c>
       <c r="AK20">
         <v>9028</v>
@@ -6902,7 +7173,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP20" s="4">
-        <v>70000</v>
+        <v>8500000</v>
       </c>
       <c r="AQ20">
         <v>9043</v>
@@ -6912,7 +7183,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS20" s="4">
-        <v>4000</v>
+        <v>1200000</v>
       </c>
       <c r="AT20">
         <v>-1</v>
@@ -6994,10 +7265,10 @@
       </c>
       <c r="K21" t="str">
         <f t="shared" si="1"/>
-        <v>200000000,10500000000,480000000,3300000,230,7000,45000,1800,1,90000,7000,0,0,0,0,0</v>
+        <v>200000000,10500000000,480000000,3300000,10600,560000,520000,90000,1,9000000,1350000,0,0,0,0,0</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M21">
         <v>1</v>
@@ -7047,7 +7318,7 @@
         <v>수호환</v>
       </c>
       <c r="AA21" s="4">
-        <v>230</v>
+        <v>10600</v>
       </c>
       <c r="AB21">
         <v>46</v>
@@ -7057,7 +7328,7 @@
         <v>검조각</v>
       </c>
       <c r="AD21" s="4">
-        <v>7000</v>
+        <v>560000</v>
       </c>
       <c r="AE21">
         <v>9010</v>
@@ -7067,7 +7338,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG21" s="4">
-        <v>45000</v>
+        <v>520000</v>
       </c>
       <c r="AH21">
         <v>9026</v>
@@ -7077,7 +7348,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ21" s="4">
-        <v>1800</v>
+        <v>90000</v>
       </c>
       <c r="AK21">
         <v>9028</v>
@@ -7097,7 +7368,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP21" s="4">
-        <v>90000</v>
+        <v>9000000</v>
       </c>
       <c r="AQ21">
         <v>9043</v>
@@ -7107,7 +7378,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS21" s="4">
-        <v>7000</v>
+        <v>1350000</v>
       </c>
       <c r="AT21">
         <v>-1</v>
@@ -7189,10 +7460,10 @@
       </c>
       <c r="K22" t="str">
         <f t="shared" si="1"/>
-        <v>210000000,11000000000,500000000,3500000,240,7500,47000,1900,1,110000,10000,0,0,0,0,0</v>
+        <v>210000000,11000000000,500000000,3500000,10800,580000,560000,95000,1,9500000,1500000,0,0,0,0,0</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -7242,7 +7513,7 @@
         <v>수호환</v>
       </c>
       <c r="AA22" s="4">
-        <v>240</v>
+        <v>10800</v>
       </c>
       <c r="AB22">
         <v>46</v>
@@ -7252,7 +7523,7 @@
         <v>검조각</v>
       </c>
       <c r="AD22" s="4">
-        <v>7500</v>
+        <v>580000</v>
       </c>
       <c r="AE22">
         <v>9010</v>
@@ -7262,7 +7533,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG22" s="4">
-        <v>47000</v>
+        <v>560000</v>
       </c>
       <c r="AH22">
         <v>9026</v>
@@ -7272,7 +7543,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ22" s="4">
-        <v>1900</v>
+        <v>95000</v>
       </c>
       <c r="AK22">
         <v>9028</v>
@@ -7292,7 +7563,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP22" s="4">
-        <v>110000</v>
+        <v>9500000</v>
       </c>
       <c r="AQ22">
         <v>9043</v>
@@ -7302,7 +7573,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS22" s="4">
-        <v>10000</v>
+        <v>1500000</v>
       </c>
       <c r="AT22">
         <v>-1</v>
@@ -7384,10 +7655,10 @@
       </c>
       <c r="K23" t="str">
         <f t="shared" si="1"/>
-        <v>220000000,11500000000,520000000,3700000,250,8000,49000,2000,1,130000,13000,0,0,0,0,0</v>
+        <v>220000000,11500000000,520000000,3700000,11000,600000,600000,100000,1,10000000,1650000,0,0,0,0,0</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M23">
         <v>1</v>
@@ -7437,7 +7708,7 @@
         <v>수호환</v>
       </c>
       <c r="AA23" s="4">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="AB23">
         <v>46</v>
@@ -7447,7 +7718,7 @@
         <v>검조각</v>
       </c>
       <c r="AD23" s="4">
-        <v>8000</v>
+        <v>600000</v>
       </c>
       <c r="AE23">
         <v>9010</v>
@@ -7457,7 +7728,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG23" s="4">
-        <v>49000</v>
+        <v>600000</v>
       </c>
       <c r="AH23">
         <v>9026</v>
@@ -7467,7 +7738,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ23" s="4">
-        <v>2000</v>
+        <v>100000</v>
       </c>
       <c r="AK23">
         <v>9028</v>
@@ -7487,7 +7758,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP23" s="4">
-        <v>130000</v>
+        <v>10000000</v>
       </c>
       <c r="AQ23">
         <v>9043</v>
@@ -7497,7 +7768,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS23" s="4">
-        <v>13000</v>
+        <v>1650000</v>
       </c>
       <c r="AT23">
         <v>-1</v>
@@ -7579,10 +7850,10 @@
       </c>
       <c r="K24" t="str">
         <f t="shared" si="1"/>
-        <v>230000000,12000000000,540000000,3900000,260,8500,51000,2100,1,150000,16000,0,0,0,0,0</v>
+        <v>230000000,12000000000,540000000,3900000,11200,620000,620000,110000,1,11000000,1800000,0,0,0,0,0</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M24">
         <v>1</v>
@@ -7632,7 +7903,7 @@
         <v>수호환</v>
       </c>
       <c r="AA24" s="4">
-        <v>260</v>
+        <v>11200</v>
       </c>
       <c r="AB24">
         <v>46</v>
@@ -7642,7 +7913,7 @@
         <v>검조각</v>
       </c>
       <c r="AD24" s="4">
-        <v>8500</v>
+        <v>620000</v>
       </c>
       <c r="AE24">
         <v>9010</v>
@@ -7652,7 +7923,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG24" s="4">
-        <v>51000</v>
+        <v>620000</v>
       </c>
       <c r="AH24">
         <v>9026</v>
@@ -7662,7 +7933,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ24" s="4">
-        <v>2100</v>
+        <v>110000</v>
       </c>
       <c r="AK24">
         <v>9028</v>
@@ -7682,7 +7953,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP24" s="4">
-        <v>150000</v>
+        <v>11000000</v>
       </c>
       <c r="AQ24">
         <v>9043</v>
@@ -7692,7 +7963,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS24" s="4">
-        <v>16000</v>
+        <v>1800000</v>
       </c>
       <c r="AT24">
         <v>-1</v>
@@ -7774,10 +8045,10 @@
       </c>
       <c r="K25" t="str">
         <f t="shared" si="1"/>
-        <v>240000000,12500000000,560000000,4100000,270,9000,53000,2200,1,170000,19000,0,0,0,0,0</v>
+        <v>240000000,12500000000,560000000,4100000,11400,640000,640000,120000,1,12000000,2000000,0,0,0,0,0</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M25">
         <v>1</v>
@@ -7827,7 +8098,7 @@
         <v>수호환</v>
       </c>
       <c r="AA25" s="4">
-        <v>270</v>
+        <v>11400</v>
       </c>
       <c r="AB25">
         <v>46</v>
@@ -7837,7 +8108,7 @@
         <v>검조각</v>
       </c>
       <c r="AD25" s="4">
-        <v>9000</v>
+        <v>640000</v>
       </c>
       <c r="AE25">
         <v>9010</v>
@@ -7847,7 +8118,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG25" s="4">
-        <v>53000</v>
+        <v>640000</v>
       </c>
       <c r="AH25">
         <v>9026</v>
@@ -7857,7 +8128,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ25" s="4">
-        <v>2200</v>
+        <v>120000</v>
       </c>
       <c r="AK25">
         <v>9028</v>
@@ -7877,7 +8148,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP25" s="4">
-        <v>170000</v>
+        <v>12000000</v>
       </c>
       <c r="AQ25">
         <v>9043</v>
@@ -7887,7 +8158,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS25" s="4">
-        <v>19000</v>
+        <v>2000000</v>
       </c>
       <c r="AT25">
         <v>-1</v>
@@ -7969,10 +8240,10 @@
       </c>
       <c r="K26" t="str">
         <f t="shared" si="1"/>
-        <v>250000000,13000000000,580000000,4300000,280,9500,55000,2300,1,190000,22000,0,0,0,0,0</v>
+        <v>250000000,13000000000,580000000,4300000,11600,660000,660000,130000,1,13000000,2200000,0,0,0,0,0</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -8022,7 +8293,7 @@
         <v>수호환</v>
       </c>
       <c r="AA26" s="4">
-        <v>280</v>
+        <v>11600</v>
       </c>
       <c r="AB26">
         <v>46</v>
@@ -8032,7 +8303,7 @@
         <v>검조각</v>
       </c>
       <c r="AD26" s="4">
-        <v>9500</v>
+        <v>660000</v>
       </c>
       <c r="AE26">
         <v>9010</v>
@@ -8042,7 +8313,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG26" s="4">
-        <v>55000</v>
+        <v>660000</v>
       </c>
       <c r="AH26">
         <v>9026</v>
@@ -8052,7 +8323,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ26" s="4">
-        <v>2300</v>
+        <v>130000</v>
       </c>
       <c r="AK26">
         <v>9028</v>
@@ -8072,7 +8343,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP26" s="4">
-        <v>190000</v>
+        <v>13000000</v>
       </c>
       <c r="AQ26">
         <v>9043</v>
@@ -8082,7 +8353,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS26" s="4">
-        <v>22000</v>
+        <v>2200000</v>
       </c>
       <c r="AT26">
         <v>-1</v>
@@ -8164,10 +8435,10 @@
       </c>
       <c r="K27" t="str">
         <f t="shared" si="1"/>
-        <v>260000000,13500000000,600000000,4500000,290,10000,57000,2400,1,210000,25000,0,0,0,0,0</v>
+        <v>260000000,13500000000,600000000,4500000,11800,680000,680000,140000,1,14000000,2350000,0,0,0,0,0</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M27">
         <v>1</v>
@@ -8217,7 +8488,7 @@
         <v>수호환</v>
       </c>
       <c r="AA27" s="4">
-        <v>290</v>
+        <v>11800</v>
       </c>
       <c r="AB27">
         <v>46</v>
@@ -8227,7 +8498,7 @@
         <v>검조각</v>
       </c>
       <c r="AD27" s="4">
-        <v>10000</v>
+        <v>680000</v>
       </c>
       <c r="AE27">
         <v>9010</v>
@@ -8237,7 +8508,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG27" s="4">
-        <v>57000</v>
+        <v>680000</v>
       </c>
       <c r="AH27">
         <v>9026</v>
@@ -8247,7 +8518,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ27" s="4">
-        <v>2400</v>
+        <v>140000</v>
       </c>
       <c r="AK27">
         <v>9028</v>
@@ -8267,7 +8538,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP27" s="4">
-        <v>210000</v>
+        <v>14000000</v>
       </c>
       <c r="AQ27">
         <v>9043</v>
@@ -8277,7 +8548,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS27" s="4">
-        <v>25000</v>
+        <v>2350000</v>
       </c>
       <c r="AT27">
         <v>-1</v>
@@ -8359,10 +8630,10 @@
       </c>
       <c r="K28" t="str">
         <f t="shared" si="1"/>
-        <v>270000000,14000000000,620000000,4700000,300,10500,59000,2500,1,230000,28000,0,0,0,0,0</v>
+        <v>270000000,14000000000,620000000,4700000,12000,700000,700000,150000,1,15000000,2500000,0,0,0,0,0</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M28">
         <v>1</v>
@@ -8412,7 +8683,7 @@
         <v>수호환</v>
       </c>
       <c r="AA28" s="4">
-        <v>300</v>
+        <v>12000</v>
       </c>
       <c r="AB28">
         <v>46</v>
@@ -8422,7 +8693,7 @@
         <v>검조각</v>
       </c>
       <c r="AD28" s="4">
-        <v>10500</v>
+        <v>700000</v>
       </c>
       <c r="AE28">
         <v>9010</v>
@@ -8432,7 +8703,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG28" s="4">
-        <v>59000</v>
+        <v>700000</v>
       </c>
       <c r="AH28">
         <v>9026</v>
@@ -8442,7 +8713,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ28" s="4">
-        <v>2500</v>
+        <v>150000</v>
       </c>
       <c r="AK28">
         <v>9028</v>
@@ -8462,7 +8733,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP28" s="4">
-        <v>230000</v>
+        <v>15000000</v>
       </c>
       <c r="AQ28">
         <v>9043</v>
@@ -8472,7 +8743,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS28" s="4">
-        <v>28000</v>
+        <v>2500000</v>
       </c>
       <c r="AT28">
         <v>-1</v>
@@ -8554,10 +8825,10 @@
       </c>
       <c r="K29" t="str">
         <f t="shared" si="1"/>
-        <v>280000000,14500000000,640000000,4900000,310,11000,61000,2600,1,250000,31000,0,0,0,0,0</v>
+        <v>280000000,14500000000,640000000,4900000,12200,720000,720000,160000,1,16000000,2650000,0,0,0,0,0</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M29">
         <v>1</v>
@@ -8607,7 +8878,7 @@
         <v>수호환</v>
       </c>
       <c r="AA29" s="4">
-        <v>310</v>
+        <v>12200</v>
       </c>
       <c r="AB29">
         <v>46</v>
@@ -8617,7 +8888,7 @@
         <v>검조각</v>
       </c>
       <c r="AD29" s="4">
-        <v>11000</v>
+        <v>720000</v>
       </c>
       <c r="AE29">
         <v>9010</v>
@@ -8627,7 +8898,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG29" s="4">
-        <v>61000</v>
+        <v>720000</v>
       </c>
       <c r="AH29">
         <v>9026</v>
@@ -8637,7 +8908,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ29" s="4">
-        <v>2600</v>
+        <v>160000</v>
       </c>
       <c r="AK29">
         <v>9028</v>
@@ -8657,7 +8928,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP29" s="4">
-        <v>250000</v>
+        <v>16000000</v>
       </c>
       <c r="AQ29">
         <v>9043</v>
@@ -8667,7 +8938,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS29" s="4">
-        <v>31000</v>
+        <v>2650000</v>
       </c>
       <c r="AT29">
         <v>-1</v>
@@ -8749,10 +9020,10 @@
       </c>
       <c r="K30" t="str">
         <f t="shared" si="1"/>
-        <v>290000000,15000000000,660000000,5100000,320,11500,63000,2700,2,270000,34000,1,0,0,0,0</v>
+        <v>290000000,15000000000,660000000,5100000,12400,740000,740000,170000,2,17000000,2800000,1,0,0,0,0</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M30">
         <v>1</v>
@@ -8802,7 +9073,7 @@
         <v>수호환</v>
       </c>
       <c r="AA30" s="4">
-        <v>320</v>
+        <v>12400</v>
       </c>
       <c r="AB30">
         <v>46</v>
@@ -8812,7 +9083,7 @@
         <v>검조각</v>
       </c>
       <c r="AD30" s="4">
-        <v>11500</v>
+        <v>740000</v>
       </c>
       <c r="AE30">
         <v>9010</v>
@@ -8822,7 +9093,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG30" s="4">
-        <v>63000</v>
+        <v>740000</v>
       </c>
       <c r="AH30">
         <v>9026</v>
@@ -8832,7 +9103,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ30" s="4">
-        <v>2700</v>
+        <v>170000</v>
       </c>
       <c r="AK30">
         <v>9028</v>
@@ -8853,7 +9124,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP30" s="4">
-        <v>270000</v>
+        <v>17000000</v>
       </c>
       <c r="AQ30">
         <v>9043</v>
@@ -8863,7 +9134,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS30" s="4">
-        <v>34000</v>
+        <v>2800000</v>
       </c>
       <c r="AT30">
         <v>9023</v>
@@ -8946,10 +9217,10 @@
       </c>
       <c r="K31" t="str">
         <f t="shared" si="1"/>
-        <v>300000000,15500000000,680000000,5300000,330,12000,65000,2800,2,290000,37000,1,0,0,0,0</v>
+        <v>300000000,15500000000,680000000,5300000,12600,760000,760000,180000,2,18000000,3000000,1,0,0,0,0</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M31">
         <v>1</v>
@@ -8999,7 +9270,7 @@
         <v>수호환</v>
       </c>
       <c r="AA31" s="4">
-        <v>330</v>
+        <v>12600</v>
       </c>
       <c r="AB31">
         <v>46</v>
@@ -9009,7 +9280,7 @@
         <v>검조각</v>
       </c>
       <c r="AD31" s="4">
-        <v>12000</v>
+        <v>760000</v>
       </c>
       <c r="AE31">
         <v>9010</v>
@@ -9019,7 +9290,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG31" s="4">
-        <v>65000</v>
+        <v>760000</v>
       </c>
       <c r="AH31">
         <v>9026</v>
@@ -9029,7 +9300,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ31" s="4">
-        <v>2800</v>
+        <v>180000</v>
       </c>
       <c r="AK31">
         <v>9028</v>
@@ -9050,7 +9321,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP31" s="4">
-        <v>290000</v>
+        <v>18000000</v>
       </c>
       <c r="AQ31">
         <v>9043</v>
@@ -9060,7 +9331,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS31" s="4">
-        <v>37000</v>
+        <v>3000000</v>
       </c>
       <c r="AT31">
         <v>9023</v>
@@ -9143,10 +9414,10 @@
       </c>
       <c r="K32" t="str">
         <f t="shared" si="1"/>
-        <v>310000000,16000000000,700000000,5500000,340,12500,67000,2900,2,310000,40000,1,1,0,0,0</v>
+        <v>310000000,16000000000,700000000,5500000,12800,780000,780000,190000,2,19000000,3200000,1,1,0,0,0</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -9196,7 +9467,7 @@
         <v>수호환</v>
       </c>
       <c r="AA32" s="4">
-        <v>340</v>
+        <v>12800</v>
       </c>
       <c r="AB32">
         <v>46</v>
@@ -9206,7 +9477,7 @@
         <v>검조각</v>
       </c>
       <c r="AD32" s="4">
-        <v>12500</v>
+        <v>780000</v>
       </c>
       <c r="AE32">
         <v>9010</v>
@@ -9216,7 +9487,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG32" s="4">
-        <v>67000</v>
+        <v>780000</v>
       </c>
       <c r="AH32">
         <v>9026</v>
@@ -9226,7 +9497,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ32" s="4">
-        <v>2900</v>
+        <v>190000</v>
       </c>
       <c r="AK32">
         <v>9028</v>
@@ -9247,7 +9518,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP32" s="4">
-        <v>310000</v>
+        <v>19000000</v>
       </c>
       <c r="AQ32">
         <v>9043</v>
@@ -9257,7 +9528,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS32" s="4">
-        <v>40000</v>
+        <v>3200000</v>
       </c>
       <c r="AT32">
         <v>9023</v>
@@ -9341,10 +9612,10 @@
       </c>
       <c r="K33" t="str">
         <f t="shared" si="1"/>
-        <v>320000000,16500000000,720000000,5700000,350,13000,69000,3000,2,330000,43000,1,1,0,0,0</v>
+        <v>320000000,16500000000,720000000,5700000,13000,800000,800000,200000,2,20000000,3350000,1,1,0,0,0</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -9394,7 +9665,7 @@
         <v>수호환</v>
       </c>
       <c r="AA33" s="4">
-        <v>350</v>
+        <v>13000</v>
       </c>
       <c r="AB33">
         <v>46</v>
@@ -9404,7 +9675,7 @@
         <v>검조각</v>
       </c>
       <c r="AD33" s="4">
-        <v>13000</v>
+        <v>800000</v>
       </c>
       <c r="AE33">
         <v>9010</v>
@@ -9414,7 +9685,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG33" s="4">
-        <v>69000</v>
+        <v>800000</v>
       </c>
       <c r="AH33">
         <v>9026</v>
@@ -9424,7 +9695,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ33" s="4">
-        <v>3000</v>
+        <v>200000</v>
       </c>
       <c r="AK33">
         <v>9028</v>
@@ -9445,7 +9716,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP33" s="4">
-        <v>330000</v>
+        <v>20000000</v>
       </c>
       <c r="AQ33">
         <v>9043</v>
@@ -9455,7 +9726,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS33" s="4">
-        <v>43000</v>
+        <v>3350000</v>
       </c>
       <c r="AT33">
         <v>9023</v>
@@ -9539,10 +9810,10 @@
       </c>
       <c r="K34" t="str">
         <f t="shared" si="1"/>
-        <v>330000000,17000000000,740000000,5900000,360,13500,71000,3100,2,350000,46000,1,1,1,0,0</v>
+        <v>330000000,17000000000,740000000,5900000,13200,820000,820000,210000,2,21000000,3500000,1,1,1,0,0</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -9592,7 +9863,7 @@
         <v>수호환</v>
       </c>
       <c r="AA34" s="4">
-        <v>360</v>
+        <v>13200</v>
       </c>
       <c r="AB34">
         <v>46</v>
@@ -9602,7 +9873,7 @@
         <v>검조각</v>
       </c>
       <c r="AD34" s="4">
-        <v>13500</v>
+        <v>820000</v>
       </c>
       <c r="AE34">
         <v>9010</v>
@@ -9612,7 +9883,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG34" s="4">
-        <v>71000</v>
+        <v>820000</v>
       </c>
       <c r="AH34">
         <v>9026</v>
@@ -9622,7 +9893,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ34" s="4">
-        <v>3100</v>
+        <v>210000</v>
       </c>
       <c r="AK34">
         <v>9028</v>
@@ -9643,7 +9914,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP34" s="4">
-        <v>350000</v>
+        <v>21000000</v>
       </c>
       <c r="AQ34">
         <v>9043</v>
@@ -9653,7 +9924,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS34" s="4">
-        <v>46000</v>
+        <v>3500000</v>
       </c>
       <c r="AT34">
         <v>9023</v>
@@ -9738,10 +10009,10 @@
       </c>
       <c r="K35" t="str">
         <f t="shared" si="1"/>
-        <v>340000000,17500000000,760000000,6100000,370,14000,73000,3200,2,370000,49000,1,1,1,1,0</v>
+        <v>340000000,17500000000,760000000,6100000,13400,840000,840000,220000,2,22000000,3650000,1,1,1,1,0</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -9791,7 +10062,7 @@
         <v>수호환</v>
       </c>
       <c r="AA35" s="4">
-        <v>370</v>
+        <v>13400</v>
       </c>
       <c r="AB35">
         <v>46</v>
@@ -9801,7 +10072,7 @@
         <v>검조각</v>
       </c>
       <c r="AD35" s="4">
-        <v>14000</v>
+        <v>840000</v>
       </c>
       <c r="AE35">
         <v>9010</v>
@@ -9811,7 +10082,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG35" s="4">
-        <v>73000</v>
+        <v>840000</v>
       </c>
       <c r="AH35">
         <v>9026</v>
@@ -9821,7 +10092,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ35" s="4">
-        <v>3200</v>
+        <v>220000</v>
       </c>
       <c r="AK35">
         <v>9028</v>
@@ -9842,7 +10113,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP35" s="4">
-        <v>370000</v>
+        <v>22000000</v>
       </c>
       <c r="AQ35">
         <v>9043</v>
@@ -9852,7 +10123,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS35" s="4">
-        <v>49000</v>
+        <v>3650000</v>
       </c>
       <c r="AT35">
         <v>9023</v>
@@ -9938,10 +10209,10 @@
       </c>
       <c r="K36" t="str">
         <f t="shared" si="1"/>
-        <v>350000000,18000000000,780000000,6300000,380,14500,75000,3300,2,390000,52000,1,1,1,1,0</v>
+        <v>350000000,18000000000,780000000,6300000,13600,860000,860000,230000,2,23000000,3800000,1,1,1,1,0</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M36">
         <v>1</v>
@@ -9991,7 +10262,7 @@
         <v>수호환</v>
       </c>
       <c r="AA36" s="4">
-        <v>380</v>
+        <v>13600</v>
       </c>
       <c r="AB36">
         <v>46</v>
@@ -10001,7 +10272,7 @@
         <v>검조각</v>
       </c>
       <c r="AD36" s="4">
-        <v>14500</v>
+        <v>860000</v>
       </c>
       <c r="AE36">
         <v>9010</v>
@@ -10011,7 +10282,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG36" s="4">
-        <v>75000</v>
+        <v>860000</v>
       </c>
       <c r="AH36">
         <v>9026</v>
@@ -10021,7 +10292,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ36" s="4">
-        <v>3300</v>
+        <v>230000</v>
       </c>
       <c r="AK36">
         <v>9028</v>
@@ -10042,7 +10313,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP36" s="4">
-        <v>390000</v>
+        <v>23000000</v>
       </c>
       <c r="AQ36">
         <v>9043</v>
@@ -10052,7 +10323,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS36" s="4">
-        <v>52000</v>
+        <v>3800000</v>
       </c>
       <c r="AT36">
         <v>9023</v>
@@ -10138,10 +10409,10 @@
       </c>
       <c r="K37" t="str">
         <f t="shared" si="1"/>
-        <v>360000000,18500000000,800000000,6500000,390,15000,77000,3400,2,410000,55000,1,1,1,1,1</v>
+        <v>360000000,18500000000,800000000,6500000,13800,880000,880000,240000,2,24000000,4000000,1,1,1,1,1</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M37">
         <v>1</v>
@@ -10191,7 +10462,7 @@
         <v>수호환</v>
       </c>
       <c r="AA37" s="4">
-        <v>390</v>
+        <v>13800</v>
       </c>
       <c r="AB37">
         <v>46</v>
@@ -10201,7 +10472,7 @@
         <v>검조각</v>
       </c>
       <c r="AD37" s="4">
-        <v>15000</v>
+        <v>880000</v>
       </c>
       <c r="AE37">
         <v>9010</v>
@@ -10211,7 +10482,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG37" s="4">
-        <v>77000</v>
+        <v>880000</v>
       </c>
       <c r="AH37">
         <v>9026</v>
@@ -10221,7 +10492,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ37" s="4">
-        <v>3400</v>
+        <v>240000</v>
       </c>
       <c r="AK37">
         <v>9028</v>
@@ -10242,7 +10513,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP37" s="4">
-        <v>410000</v>
+        <v>24000000</v>
       </c>
       <c r="AQ37">
         <v>9043</v>
@@ -10252,7 +10523,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS37" s="4">
-        <v>55000</v>
+        <v>4000000</v>
       </c>
       <c r="AT37">
         <v>9023</v>
@@ -10339,10 +10610,10 @@
       </c>
       <c r="K38" t="str">
         <f t="shared" si="1"/>
-        <v>370000000,19000000000,820000000,6700000,400,15500,79000,3500,2,430000,58000,1,1,1,1,1</v>
+        <v>370000000,19000000000,820000000,6700000,14000,900000,900000,250000,2,25000000,4200000,1,1,1,1,1</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M38">
         <v>1</v>
@@ -10392,7 +10663,7 @@
         <v>수호환</v>
       </c>
       <c r="AA38" s="4">
-        <v>400</v>
+        <v>14000</v>
       </c>
       <c r="AB38">
         <v>46</v>
@@ -10402,7 +10673,7 @@
         <v>검조각</v>
       </c>
       <c r="AD38" s="4">
-        <v>15500</v>
+        <v>900000</v>
       </c>
       <c r="AE38">
         <v>9010</v>
@@ -10412,7 +10683,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG38" s="4">
-        <v>79000</v>
+        <v>900000</v>
       </c>
       <c r="AH38">
         <v>9026</v>
@@ -10422,7 +10693,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ38" s="4">
-        <v>3500</v>
+        <v>250000</v>
       </c>
       <c r="AK38">
         <v>9028</v>
@@ -10443,7 +10714,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP38" s="4">
-        <v>430000</v>
+        <v>25000000</v>
       </c>
       <c r="AQ38">
         <v>9043</v>
@@ -10453,7 +10724,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS38" s="4">
-        <v>58000</v>
+        <v>4200000</v>
       </c>
       <c r="AT38">
         <v>9023</v>
@@ -10540,10 +10811,10 @@
       </c>
       <c r="K39" t="str">
         <f t="shared" si="1"/>
-        <v>380000000,19500000000,840000000,6900000,410,16000,81000,3600,2,450000,61000,2,1,1,1,1</v>
+        <v>380000000,19500000000,840000000,6900000,14200,920000,920000,260000,2,26000000,4350000,2,1,1,1,1</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -10593,7 +10864,7 @@
         <v>수호환</v>
       </c>
       <c r="AA39" s="4">
-        <v>410</v>
+        <v>14200</v>
       </c>
       <c r="AB39">
         <v>46</v>
@@ -10603,7 +10874,7 @@
         <v>검조각</v>
       </c>
       <c r="AD39" s="4">
-        <v>16000</v>
+        <v>920000</v>
       </c>
       <c r="AE39">
         <v>9010</v>
@@ -10613,7 +10884,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG39" s="4">
-        <v>81000</v>
+        <v>920000</v>
       </c>
       <c r="AH39">
         <v>9026</v>
@@ -10623,7 +10894,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ39" s="4">
-        <v>3600</v>
+        <v>260000</v>
       </c>
       <c r="AK39">
         <v>9028</v>
@@ -10644,7 +10915,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP39" s="4">
-        <v>450000</v>
+        <v>26000000</v>
       </c>
       <c r="AQ39">
         <v>9043</v>
@@ -10654,7 +10925,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS39" s="4">
-        <v>61000</v>
+        <v>4350000</v>
       </c>
       <c r="AT39">
         <v>9023</v>
@@ -10742,10 +11013,10 @@
       </c>
       <c r="K40" t="str">
         <f t="shared" si="1"/>
-        <v>390000000,20000000000,860000000,7100000,420,16500,83000,3700,2,470000,64000,2,1,1,1,1</v>
+        <v>390000000,20000000000,860000000,7100000,14400,940000,940000,270000,2,27000000,4500000,2,1,1,1,1</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M40">
         <v>1</v>
@@ -10795,7 +11066,7 @@
         <v>수호환</v>
       </c>
       <c r="AA40" s="4">
-        <v>420</v>
+        <v>14400</v>
       </c>
       <c r="AB40">
         <v>46</v>
@@ -10805,7 +11076,7 @@
         <v>검조각</v>
       </c>
       <c r="AD40" s="4">
-        <v>16500</v>
+        <v>940000</v>
       </c>
       <c r="AE40">
         <v>9010</v>
@@ -10815,7 +11086,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG40" s="4">
-        <v>83000</v>
+        <v>940000</v>
       </c>
       <c r="AH40">
         <v>9026</v>
@@ -10825,7 +11096,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ40" s="4">
-        <v>3700</v>
+        <v>270000</v>
       </c>
       <c r="AK40">
         <v>9028</v>
@@ -10846,7 +11117,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP40" s="4">
-        <v>470000</v>
+        <v>27000000</v>
       </c>
       <c r="AQ40">
         <v>9043</v>
@@ -10856,7 +11127,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS40" s="4">
-        <v>64000</v>
+        <v>4500000</v>
       </c>
       <c r="AT40">
         <v>9023</v>
@@ -10944,10 +11215,10 @@
       </c>
       <c r="K41" t="str">
         <f t="shared" si="1"/>
-        <v>400000000,20500000000,880000000,7300000,430,17000,85000,3800,2,490000,67000,2,2,1,1,1</v>
+        <v>400000000,20500000000,880000000,7300000,14600,960000,960000,280000,2,28000000,4650000,2,2,1,1,1</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -10997,7 +11268,7 @@
         <v>수호환</v>
       </c>
       <c r="AA41" s="4">
-        <v>430</v>
+        <v>14600</v>
       </c>
       <c r="AB41">
         <v>46</v>
@@ -11007,7 +11278,7 @@
         <v>검조각</v>
       </c>
       <c r="AD41" s="4">
-        <v>17000</v>
+        <v>960000</v>
       </c>
       <c r="AE41">
         <v>9010</v>
@@ -11017,7 +11288,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG41" s="4">
-        <v>85000</v>
+        <v>960000</v>
       </c>
       <c r="AH41">
         <v>9026</v>
@@ -11027,7 +11298,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ41" s="4">
-        <v>3800</v>
+        <v>280000</v>
       </c>
       <c r="AK41">
         <v>9028</v>
@@ -11048,7 +11319,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP41" s="4">
-        <v>490000</v>
+        <v>28000000</v>
       </c>
       <c r="AQ41">
         <v>9043</v>
@@ -11058,7 +11329,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS41" s="4">
-        <v>67000</v>
+        <v>4650000</v>
       </c>
       <c r="AT41">
         <v>9023</v>
@@ -11147,10 +11418,10 @@
       </c>
       <c r="K42" t="str">
         <f t="shared" si="1"/>
-        <v>410000000,21000000000,900000000,7500000,440,17500,87000,3900,2,510000,70000,2,2,1,1,1</v>
+        <v>410000000,21000000000,900000000,7500000,14800,980000,980000,290000,2,29000000,4800000,2,2,1,1,1</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -11200,7 +11471,7 @@
         <v>수호환</v>
       </c>
       <c r="AA42" s="4">
-        <v>440</v>
+        <v>14800</v>
       </c>
       <c r="AB42">
         <v>46</v>
@@ -11210,7 +11481,7 @@
         <v>검조각</v>
       </c>
       <c r="AD42" s="4">
-        <v>17500</v>
+        <v>980000</v>
       </c>
       <c r="AE42">
         <v>9010</v>
@@ -11220,7 +11491,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG42" s="4">
-        <v>87000</v>
+        <v>980000</v>
       </c>
       <c r="AH42">
         <v>9026</v>
@@ -11230,7 +11501,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ42" s="4">
-        <v>3900</v>
+        <v>290000</v>
       </c>
       <c r="AK42">
         <v>9028</v>
@@ -11251,7 +11522,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP42" s="4">
-        <v>510000</v>
+        <v>29000000</v>
       </c>
       <c r="AQ42">
         <v>9043</v>
@@ -11261,7 +11532,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS42" s="4">
-        <v>70000</v>
+        <v>4800000</v>
       </c>
       <c r="AT42">
         <v>9023</v>
@@ -11333,190 +11604,190 @@
         <f>SUM($D$2:D43)</f>
         <v>214</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="6">
         <v>41</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="6">
         <f t="shared" ref="H43:H47" si="8">H42+10</f>
         <v>411</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="6">
         <f t="shared" ref="I43:I47" si="9">I42+10</f>
         <v>420</v>
       </c>
-      <c r="J43" t="str">
+      <c r="J43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>1,2,5,20,9016,46,9010,9026,9028,9032,9043,9023,9017,9027,9033,9044</v>
       </c>
-      <c r="K43" t="str">
+      <c r="K43" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>420000000,21500000000,920000000,7700000,450,18000,89000,4000,2,530000,73000,2,2,2,1,1</v>
-      </c>
-      <c r="L43" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="M43">
+        <v>420000000,21500000000,920000000,7700000,15000,1000000,1000000,300000,2,30000000,5000000,2,2,2,1,1</v>
+      </c>
+      <c r="L43" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="M43" s="6">
         <v>1</v>
       </c>
-      <c r="N43" t="str">
+      <c r="N43" s="6" t="str">
         <f>VLOOKUP(M43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>옥</v>
       </c>
-      <c r="O43" s="4">
+      <c r="O43" s="7">
         <v>420000000</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="6">
         <v>2</v>
       </c>
-      <c r="Q43" t="str">
+      <c r="Q43" s="6" t="str">
         <f>VLOOKUP(P43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>수련의돌</v>
       </c>
-      <c r="R43" s="4">
+      <c r="R43" s="7">
         <v>21500000000</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="6">
         <v>5</v>
       </c>
-      <c r="T43" t="str">
+      <c r="T43" s="6" t="str">
         <f>VLOOKUP(S43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>여우구슬</v>
       </c>
-      <c r="U43" s="4">
+      <c r="U43" s="7">
         <v>920000000</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="6">
         <v>20</v>
       </c>
-      <c r="W43" t="str">
+      <c r="W43" s="6" t="str">
         <f>VLOOKUP(V43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>복숭아</v>
       </c>
-      <c r="X43" s="4">
+      <c r="X43" s="7">
         <v>7700000</v>
       </c>
-      <c r="Y43">
+      <c r="Y43" s="6">
         <v>9016</v>
       </c>
-      <c r="Z43" t="str">
+      <c r="Z43" s="6" t="str">
         <f>VLOOKUP(Y43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>수호환</v>
       </c>
-      <c r="AA43" s="4">
-        <v>450</v>
-      </c>
-      <c r="AB43">
+      <c r="AA43" s="7">
+        <v>15000</v>
+      </c>
+      <c r="AB43" s="6">
         <v>46</v>
       </c>
-      <c r="AC43" t="str">
+      <c r="AC43" s="6" t="str">
         <f>VLOOKUP(AB43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>검조각</v>
       </c>
-      <c r="AD43" s="4">
-        <v>18000</v>
-      </c>
-      <c r="AE43">
+      <c r="AD43" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="AE43" s="6">
         <v>9010</v>
       </c>
-      <c r="AF43" t="str">
+      <c r="AF43" s="6" t="str">
         <f>VLOOKUP(AE43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>영혼석</v>
       </c>
-      <c r="AG43" s="4">
-        <v>89000</v>
-      </c>
-      <c r="AH43">
+      <c r="AG43" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="AH43" s="6">
         <v>9026</v>
       </c>
-      <c r="AI43" t="str">
+      <c r="AI43" s="6" t="str">
         <f>VLOOKUP(AH43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>여우불씨</v>
       </c>
-      <c r="AJ43" s="4">
-        <v>4000</v>
-      </c>
-      <c r="AK43">
+      <c r="AJ43" s="7">
+        <v>300000</v>
+      </c>
+      <c r="AK43" s="6">
         <v>9028</v>
       </c>
-      <c r="AL43" t="str">
+      <c r="AL43" s="6" t="str">
         <f>VLOOKUP(AK43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>요도 해방서</v>
       </c>
-      <c r="AM43">
+      <c r="AM43" s="6">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AN43">
+      <c r="AN43" s="6">
         <v>9032</v>
       </c>
-      <c r="AO43" t="str">
+      <c r="AO43" s="6" t="str">
         <f>VLOOKUP(AN43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>도술꽃</v>
       </c>
-      <c r="AP43" s="4">
-        <v>530000</v>
-      </c>
-      <c r="AQ43">
+      <c r="AP43" s="7">
+        <v>30000000</v>
+      </c>
+      <c r="AQ43" s="6">
         <v>9043</v>
       </c>
-      <c r="AR43" t="str">
+      <c r="AR43" s="6" t="str">
         <f>VLOOKUP(AQ43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>심득 조각</v>
       </c>
-      <c r="AS43" s="4">
-        <v>73000</v>
-      </c>
-      <c r="AT43">
+      <c r="AS43" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="AT43" s="6">
         <v>9023</v>
       </c>
-      <c r="AU43" t="str">
+      <c r="AU43" s="6" t="str">
         <f>VLOOKUP(AT43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>영혼석 소탕권</v>
       </c>
-      <c r="AV43">
+      <c r="AV43" s="6">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AW43">
+      <c r="AW43" s="6">
         <v>9017</v>
       </c>
-      <c r="AX43" t="str">
+      <c r="AX43" s="6" t="str">
         <f>VLOOKUP(AW43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>수호환 소탕권</v>
       </c>
-      <c r="AY43">
+      <c r="AY43" s="6">
         <f t="shared" ref="AY43:AY47" si="10">AY34+1</f>
         <v>2</v>
       </c>
-      <c r="AZ43">
+      <c r="AZ43" s="6">
         <v>9027</v>
       </c>
-      <c r="BA43" t="str">
+      <c r="BA43" s="6" t="str">
         <f>VLOOKUP(AZ43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>여우불씨 소탕권</v>
       </c>
-      <c r="BB43">
+      <c r="BB43" s="6">
         <f>BB34+1</f>
         <v>2</v>
       </c>
-      <c r="BC43">
+      <c r="BC43" s="6">
         <v>9033</v>
       </c>
-      <c r="BD43" t="str">
+      <c r="BD43" s="6" t="str">
         <f>VLOOKUP(BC43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>도술꽃 소탕권</v>
       </c>
-      <c r="BE43">
+      <c r="BE43" s="6">
         <v>1</v>
       </c>
-      <c r="BF43">
+      <c r="BF43" s="6">
         <v>9044</v>
       </c>
-      <c r="BG43" t="str">
+      <c r="BG43" s="6" t="str">
         <f>VLOOKUP(BF43,[1]ChoboTable!$C:$D,2,FALSE)</f>
         <v>내면세계 입장권</v>
       </c>
-      <c r="BH43">
+      <c r="BH43" s="6">
         <v>1</v>
       </c>
     </row>
@@ -11554,10 +11825,10 @@
       </c>
       <c r="K44" t="str">
         <f t="shared" si="1"/>
-        <v>430000000,22000000000,940000000,7900000,460,18500,91000,4100,3,550000,76000,2,2,2,2,1</v>
+        <v>430000000,22000000000,940000000,7900000,15200,1020000,1020000,310000,3,31000000,5200000,2,2,2,2,1</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -11607,7 +11878,7 @@
         <v>수호환</v>
       </c>
       <c r="AA44" s="4">
-        <v>460</v>
+        <v>15200</v>
       </c>
       <c r="AB44">
         <v>46</v>
@@ -11617,7 +11888,7 @@
         <v>검조각</v>
       </c>
       <c r="AD44" s="4">
-        <v>18500</v>
+        <v>1020000</v>
       </c>
       <c r="AE44">
         <v>9010</v>
@@ -11627,7 +11898,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG44" s="4">
-        <v>91000</v>
+        <v>1020000</v>
       </c>
       <c r="AH44">
         <v>9026</v>
@@ -11637,7 +11908,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ44" s="4">
-        <v>4100</v>
+        <v>310000</v>
       </c>
       <c r="AK44">
         <v>9028</v>
@@ -11658,7 +11929,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP44" s="4">
-        <v>550000</v>
+        <v>31000000</v>
       </c>
       <c r="AQ44">
         <v>9043</v>
@@ -11668,7 +11939,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS44" s="4">
-        <v>76000</v>
+        <v>5200000</v>
       </c>
       <c r="AT44">
         <v>9023</v>
@@ -11759,10 +12030,10 @@
       </c>
       <c r="K45" t="str">
         <f t="shared" si="1"/>
-        <v>440000000,22500000000,960000000,8100000,470,19000,93000,4200,3,570000,79000,2,2,2,2,1</v>
+        <v>440000000,22500000000,960000000,8100000,15400,1040000,1040000,320000,3,32000000,5350000,2,2,2,2,1</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M45">
         <v>1</v>
@@ -11812,7 +12083,7 @@
         <v>수호환</v>
       </c>
       <c r="AA45" s="4">
-        <v>470</v>
+        <v>15400</v>
       </c>
       <c r="AB45">
         <v>46</v>
@@ -11822,7 +12093,7 @@
         <v>검조각</v>
       </c>
       <c r="AD45" s="4">
-        <v>19000</v>
+        <v>1040000</v>
       </c>
       <c r="AE45">
         <v>9010</v>
@@ -11832,7 +12103,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG45" s="4">
-        <v>93000</v>
+        <v>1040000</v>
       </c>
       <c r="AH45">
         <v>9026</v>
@@ -11842,7 +12113,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ45" s="4">
-        <v>4200</v>
+        <v>320000</v>
       </c>
       <c r="AK45">
         <v>9028</v>
@@ -11863,7 +12134,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP45" s="4">
-        <v>570000</v>
+        <v>32000000</v>
       </c>
       <c r="AQ45">
         <v>9043</v>
@@ -11873,7 +12144,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS45" s="4">
-        <v>79000</v>
+        <v>5350000</v>
       </c>
       <c r="AT45">
         <v>9023</v>
@@ -11964,10 +12235,10 @@
       </c>
       <c r="K46" t="str">
         <f t="shared" si="1"/>
-        <v>450000000,23000000000,980000000,8300000,480,19500,95000,4300,3,590000,82000,2,2,2,2,2</v>
+        <v>450000000,23000000000,980000000,8300000,15600,1060000,1060000,330000,3,33000000,5500000,2,2,2,2,2</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M46">
         <v>1</v>
@@ -12017,7 +12288,7 @@
         <v>수호환</v>
       </c>
       <c r="AA46" s="4">
-        <v>480</v>
+        <v>15600</v>
       </c>
       <c r="AB46">
         <v>46</v>
@@ -12027,7 +12298,7 @@
         <v>검조각</v>
       </c>
       <c r="AD46" s="4">
-        <v>19500</v>
+        <v>1060000</v>
       </c>
       <c r="AE46">
         <v>9010</v>
@@ -12037,7 +12308,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG46" s="4">
-        <v>95000</v>
+        <v>1060000</v>
       </c>
       <c r="AH46">
         <v>9026</v>
@@ -12047,7 +12318,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ46" s="4">
-        <v>4300</v>
+        <v>330000</v>
       </c>
       <c r="AK46">
         <v>9028</v>
@@ -12068,7 +12339,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP46" s="4">
-        <v>590000</v>
+        <v>33000000</v>
       </c>
       <c r="AQ46">
         <v>9043</v>
@@ -12078,7 +12349,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS46" s="4">
-        <v>82000</v>
+        <v>5500000</v>
       </c>
       <c r="AT46">
         <v>9023</v>
@@ -12170,10 +12441,10 @@
       </c>
       <c r="K47" t="str">
         <f t="shared" si="1"/>
-        <v>460000000,23500000000,1000000000,8500000,490,20000,97000,4400,3,610000,85000,2,2,2,2,2</v>
+        <v>460000000,23500000000,1000000000,8500000,15800,1080000,1080000,340000,3,34000000,5650000,2,2,2,2,2</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M47">
         <v>1</v>
@@ -12223,7 +12494,7 @@
         <v>수호환</v>
       </c>
       <c r="AA47" s="4">
-        <v>490</v>
+        <v>15800</v>
       </c>
       <c r="AB47">
         <v>46</v>
@@ -12233,7 +12504,7 @@
         <v>검조각</v>
       </c>
       <c r="AD47" s="4">
-        <v>20000</v>
+        <v>1080000</v>
       </c>
       <c r="AE47">
         <v>9010</v>
@@ -12243,7 +12514,7 @@
         <v>영혼석</v>
       </c>
       <c r="AG47" s="4">
-        <v>97000</v>
+        <v>1080000</v>
       </c>
       <c r="AH47">
         <v>9026</v>
@@ -12253,7 +12524,7 @@
         <v>여우불씨</v>
       </c>
       <c r="AJ47" s="4">
-        <v>4400</v>
+        <v>340000</v>
       </c>
       <c r="AK47">
         <v>9028</v>
@@ -12274,7 +12545,7 @@
         <v>도술꽃</v>
       </c>
       <c r="AP47" s="4">
-        <v>610000</v>
+        <v>34000000</v>
       </c>
       <c r="AQ47">
         <v>9043</v>
@@ -12284,7 +12555,7 @@
         <v>심득 조각</v>
       </c>
       <c r="AS47" s="4">
-        <v>85000</v>
+        <v>5650000</v>
       </c>
       <c r="AT47">
         <v>9023</v>
@@ -12340,212 +12611,6 @@
       <c r="BH47">
         <f>BH38+1</f>
         <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48">
-        <v>11</v>
-      </c>
-      <c r="E48">
-        <f>SUM($D$2:D48)</f>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="D49">
-        <v>11</v>
-      </c>
-      <c r="E49">
-        <f>SUM($D$2:D49)</f>
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50">
-        <v>12</v>
-      </c>
-      <c r="E50">
-        <f>SUM($D$2:D50)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D51">
-        <v>12</v>
-      </c>
-      <c r="E51">
-        <f>SUM($D$2:D51)</f>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <f>SUM($D$2:D52)</f>
-        <v>314</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53">
-        <v>12</v>
-      </c>
-      <c r="E53">
-        <f>SUM($D$2:D53)</f>
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54">
-        <v>10</v>
-      </c>
-      <c r="E54">
-        <f>SUM($D$2:D54)</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55">
-        <v>10</v>
-      </c>
-      <c r="E55">
-        <f>SUM($D$2:D55)</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56">
-        <v>15</v>
-      </c>
-      <c r="E56">
-        <f>SUM($D$2:D56)</f>
-        <v>361</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>170</v>
-      </c>
-      <c r="D58">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59">
-        <v>48</v>
-      </c>
-      <c r="E59">
-        <f>D58+D59</f>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>172</v>
-      </c>
-      <c r="D60">
-        <v>10</v>
-      </c>
-      <c r="E60">
-        <f>E59+D60</f>
-        <v>346</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B61" t="s">
-        <v>171</v>
-      </c>
-      <c r="D61">
-        <v>15</v>
-      </c>
-      <c r="E61">
-        <f>E60+D61</f>
-        <v>361</v>
       </c>
     </row>
   </sheetData>
